--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_10_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323170.6080052103</v>
+        <v>322421.470799683</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.309829763041575</v>
       </c>
       <c r="T3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="U3" t="n">
+        <v>5.309829763041575</v>
+      </c>
+      <c r="V3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>5.309829763041574</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T6" t="n">
         <v>6.876045741711437</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>6.05642108929943</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>6.876045741711437</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="D8" t="n">
-        <v>3.487951988786138</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15.30273751513505</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,10 +1260,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>10.75721046822444</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>252.1229555799665</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>234.6620056874935</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0721555371688</v>
+        <v>224.0721555371689</v>
       </c>
       <c r="E11" t="n">
-        <v>64.05333903229854</v>
+        <v>251.3194839887477</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.1971217109846</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>203.7972652807861</v>
       </c>
       <c r="I11" t="n">
-        <v>60.79193593205908</v>
+        <v>60.79193593205912</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.1355299937305</v>
+        <v>67.13552999373053</v>
       </c>
       <c r="T11" t="n">
-        <v>90.31928412853165</v>
+        <v>90.31928412853168</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>84.4031506935134</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>218.6300826338989</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.6270525725395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>35.92229756635325</v>
       </c>
       <c r="C12" t="n">
-        <v>42.09761290480162</v>
+        <v>42.09761290480165</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>27.03419437188683</v>
+        <v>27.03419437188685</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0788134263626</v>
+        <v>105.7595075340859</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.72298284202647</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>36.1555292065019</v>
+        <v>36.15552920650192</v>
       </c>
       <c r="T12" t="n">
-        <v>68.48690079480164</v>
+        <v>68.48690079480167</v>
       </c>
       <c r="U12" t="n">
-        <v>110.8816786271422</v>
+        <v>95.31308127793126</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1512,10 +1512,10 @@
         <v>121.0840970774055</v>
       </c>
       <c r="X12" t="n">
-        <v>75.16209911996336</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>75.07180969379024</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.22109409842318</v>
+        <v>49.22109409842321</v>
       </c>
       <c r="C13" t="n">
-        <v>36.63593501511372</v>
+        <v>36.63593501511374</v>
       </c>
       <c r="D13" t="n">
-        <v>18.00458693469824</v>
+        <v>18.00458693469827</v>
       </c>
       <c r="E13" t="n">
-        <v>15.82307656305505</v>
+        <v>15.82307656305508</v>
       </c>
       <c r="F13" t="n">
-        <v>14.81016193941713</v>
+        <v>14.81016193941716</v>
       </c>
       <c r="G13" t="n">
-        <v>37.15817455394608</v>
+        <v>37.15817455394611</v>
       </c>
       <c r="H13" t="n">
-        <v>29.64322724995646</v>
+        <v>29.6432272499565</v>
       </c>
       <c r="I13" t="n">
-        <v>18.1658876704421</v>
+        <v>18.16588767044212</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.70423262039296</v>
+        <v>36.70423262039299</v>
       </c>
       <c r="S13" t="n">
-        <v>89.53827387932873</v>
+        <v>89.53827387932877</v>
       </c>
       <c r="T13" t="n">
-        <v>96.38650517322809</v>
+        <v>96.38650517322812</v>
       </c>
       <c r="U13" t="n">
         <v>155.6960386154678</v>
@@ -1591,10 +1591,10 @@
         <v>155.9121122530769</v>
       </c>
       <c r="X13" t="n">
-        <v>95.09876930552304</v>
+        <v>95.09876930552306</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.97376726858067</v>
+        <v>87.9737672685807</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>252.1229555799665</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>234.6620056874935</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>284.1971217109845</v>
+        <v>284.1971217109846</v>
       </c>
       <c r="H14" t="n">
-        <v>203.797265280786</v>
+        <v>203.7972652807861</v>
       </c>
       <c r="I14" t="n">
-        <v>60.791935932059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.13552999373042</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.62937565637347</v>
+        <v>90.31928412853166</v>
       </c>
       <c r="U14" t="n">
-        <v>120.6951884466714</v>
+        <v>120.6951884466715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>218.6300826338988</v>
+        <v>27.20289341502496</v>
       </c>
       <c r="X14" t="n">
-        <v>239.1202145949548</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.6270525725394</v>
+        <v>255.6270525725395</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.92229756635314</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>42.09761290480154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,10 +1695,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>14.45832630986968</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>105.759507534087</v>
+        <v>105.7595075340857</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>36.15552920650181</v>
+        <v>36.15552920650192</v>
       </c>
       <c r="T15" t="n">
-        <v>68.48690079480156</v>
+        <v>68.48690079480167</v>
       </c>
       <c r="U15" t="n">
-        <v>95.31308127793115</v>
+        <v>95.31308127793126</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>102.1897010659112</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>121.0840970774055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>75.16209911996339</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.07180969379016</v>
+        <v>75.07180969379027</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.22109409842309</v>
+        <v>49.22109409842321</v>
       </c>
       <c r="C16" t="n">
-        <v>36.63593501511363</v>
+        <v>36.63593501511374</v>
       </c>
       <c r="D16" t="n">
-        <v>18.00458693469815</v>
+        <v>18.00458693469827</v>
       </c>
       <c r="E16" t="n">
-        <v>15.82307656305497</v>
+        <v>15.82307656305508</v>
       </c>
       <c r="F16" t="n">
-        <v>14.81016193941704</v>
+        <v>14.81016193941716</v>
       </c>
       <c r="G16" t="n">
-        <v>37.158174553946</v>
+        <v>37.15817455394611</v>
       </c>
       <c r="H16" t="n">
-        <v>29.64322724995638</v>
+        <v>29.6432272499565</v>
       </c>
       <c r="I16" t="n">
-        <v>18.16588767044201</v>
+        <v>18.16588767044212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.70423262039288</v>
+        <v>36.70423262039299</v>
       </c>
       <c r="S16" t="n">
-        <v>89.53827387932864</v>
+        <v>89.53827387932877</v>
       </c>
       <c r="T16" t="n">
-        <v>96.386505173228</v>
+        <v>96.38650517322812</v>
       </c>
       <c r="U16" t="n">
-        <v>155.6960386154677</v>
+        <v>155.6960386154678</v>
       </c>
       <c r="V16" t="n">
-        <v>121.5267572403138</v>
+        <v>121.5267572403139</v>
       </c>
       <c r="W16" t="n">
-        <v>155.9121122530768</v>
+        <v>155.9121122530769</v>
       </c>
       <c r="X16" t="n">
-        <v>95.09876930552295</v>
+        <v>95.09876930552306</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.97376726858059</v>
+        <v>87.9737672685807</v>
       </c>
     </row>
     <row r="17">
@@ -1926,13 +1926,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7.506865531242686</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.28292963098976</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.72298284202647</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0977868783158</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>6.096123619301006</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1792990622086</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.66952654207478</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.57937653244245</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>112.2694490718409</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2163,19 +2163,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>7.506865531242686</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V21" t="n">
-        <v>7.344028480941117</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>13.66523947273612</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>112.2694490718409</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.57937653244245</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.3151187039071</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>12.53370690037632</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>16.07206162868975</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>7.506865531242717</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>167.3151187039071</v>
       </c>
       <c r="S25" t="n">
-        <v>179.8488256042834</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.27718101079839</v>
+        <v>60.8108879111747</v>
       </c>
       <c r="V25" t="n">
         <v>14.10789963564451</v>
@@ -2564,7 +2564,7 @@
         <v>231.5219294653594</v>
       </c>
       <c r="F26" t="n">
-        <v>256.4676051348091</v>
+        <v>256.467605134809</v>
       </c>
       <c r="G26" t="n">
         <v>264.3995671875963</v>
@@ -2573,7 +2573,7 @@
         <v>183.9997107573978</v>
       </c>
       <c r="I26" t="n">
-        <v>40.99438140867084</v>
+        <v>40.99438140867082</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.33797547034226</v>
+        <v>47.33797547034223</v>
       </c>
       <c r="T26" t="n">
-        <v>70.52172960514339</v>
+        <v>70.52172960514338</v>
       </c>
       <c r="U26" t="n">
         <v>100.8976339232832</v>
@@ -2615,10 +2615,10 @@
         <v>177.3438178632325</v>
       </c>
       <c r="W26" t="n">
-        <v>198.8325281105107</v>
+        <v>198.8325281105106</v>
       </c>
       <c r="X26" t="n">
-        <v>219.3226600715667</v>
+        <v>219.3226600715666</v>
       </c>
       <c r="Y26" t="n">
         <v>235.8294980491512</v>
@@ -2640,10 +2640,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>7.236639848498584</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>90.45957899615645</v>
+        <v>16.35797468311362</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0977868783158</v>
+        <v>48.68934627141337</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9239673614453</v>
+        <v>154.9563592811041</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.42353957503494</v>
+        <v>29.42353957503491</v>
       </c>
       <c r="C28" t="n">
-        <v>16.83838049172547</v>
+        <v>16.83838049172545</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.36062003055784</v>
+        <v>17.36062003055781</v>
       </c>
       <c r="H28" t="n">
-        <v>9.845672726568223</v>
+        <v>9.845672726568194</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.90667809700472</v>
+        <v>16.90667809700469</v>
       </c>
       <c r="S28" t="n">
-        <v>69.74071935594048</v>
+        <v>69.74071935594046</v>
       </c>
       <c r="T28" t="n">
-        <v>76.58895064983984</v>
+        <v>76.58895064983982</v>
       </c>
       <c r="U28" t="n">
         <v>135.8984840920795</v>
@@ -2776,10 +2776,10 @@
         <v>136.1145577296886</v>
       </c>
       <c r="X28" t="n">
-        <v>75.30121478213479</v>
+        <v>75.30121478213476</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.17621274519243</v>
+        <v>68.1762127451924</v>
       </c>
     </row>
     <row r="29">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.12474304296498</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>22.30005838141338</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0788134263626</v>
@@ -2889,7 +2889,7 @@
         <v>109.6789634095695</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.28292963098976</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.72298284202647</v>
       </c>
       <c r="S30" t="n">
-        <v>16.35797468311365</v>
+        <v>127.9578364656514</v>
       </c>
       <c r="T30" t="n">
         <v>199.0977868783158</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>188.7741920748355</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3114,10 +3114,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>5.056486152878421</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.72298284202647</v>
       </c>
       <c r="S33" t="n">
-        <v>14.17782098749349</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T33" t="n">
-        <v>124.9711042800765</v>
+        <v>48.7675033471885</v>
       </c>
       <c r="U33" t="n">
         <v>225.9239673614453</v>
@@ -3171,7 +3171,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>53.18439090095495</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.6142348393359</v>
+        <v>179.614234839336</v>
       </c>
       <c r="C35" t="n">
-        <v>162.1532849468629</v>
+        <v>162.153284946863</v>
       </c>
       <c r="D35" t="n">
-        <v>151.5634347965383</v>
+        <v>151.5634347965384</v>
       </c>
       <c r="E35" t="n">
         <v>178.8107632481172</v>
       </c>
       <c r="F35" t="n">
-        <v>203.7564389175668</v>
+        <v>203.7564389175669</v>
       </c>
       <c r="G35" t="n">
         <v>211.6884009703541</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>17.81056338790114</v>
+        <v>17.8105633879012</v>
       </c>
       <c r="U35" t="n">
-        <v>48.18646770604096</v>
+        <v>48.18646770604101</v>
       </c>
       <c r="V35" t="n">
         <v>124.6326516459903</v>
@@ -3329,7 +3329,7 @@
         <v>146.1213618932684</v>
       </c>
       <c r="X35" t="n">
-        <v>166.6114938543244</v>
+        <v>166.6114938543245</v>
       </c>
       <c r="Y35" t="n">
         <v>183.118331831909</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3357,7 +3357,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.6789634095695</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>7.237426657771348</v>
       </c>
       <c r="S36" t="n">
-        <v>166.766415290016</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>22.80436053730072</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>121.6203647521796</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>2.563088953159792</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.02955313869823</v>
+        <v>17.02955313869828</v>
       </c>
       <c r="T37" t="n">
-        <v>23.87778443259758</v>
+        <v>23.87778443259764</v>
       </c>
       <c r="U37" t="n">
-        <v>83.18731787483725</v>
+        <v>83.1873178748373</v>
       </c>
       <c r="V37" t="n">
-        <v>49.01803649968338</v>
+        <v>49.01803649968343</v>
       </c>
       <c r="W37" t="n">
-        <v>83.40339151244638</v>
+        <v>83.40339151244643</v>
       </c>
       <c r="X37" t="n">
-        <v>22.59004856489253</v>
+        <v>22.59004856489258</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.46504652795016</v>
+        <v>15.46504652795022</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.6142348393361</v>
+        <v>179.614234839336</v>
       </c>
       <c r="C38" t="n">
-        <v>162.1532849468631</v>
+        <v>162.153284946863</v>
       </c>
       <c r="D38" t="n">
-        <v>151.5634347965385</v>
+        <v>151.5634347965384</v>
       </c>
       <c r="E38" t="n">
-        <v>178.8107632481173</v>
+        <v>178.8107632481172</v>
       </c>
       <c r="F38" t="n">
-        <v>203.756438917567</v>
+        <v>203.7564389175669</v>
       </c>
       <c r="G38" t="n">
-        <v>211.6884009703542</v>
+        <v>211.6884009703541</v>
       </c>
       <c r="H38" t="n">
-        <v>131.2885445401557</v>
+        <v>131.2885445401556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.81056338790128</v>
+        <v>17.8105633879012</v>
       </c>
       <c r="U38" t="n">
-        <v>48.1864677060411</v>
+        <v>48.18646770604101</v>
       </c>
       <c r="V38" t="n">
-        <v>124.6326516459904</v>
+        <v>124.6326516459903</v>
       </c>
       <c r="W38" t="n">
-        <v>146.1213618932685</v>
+        <v>146.1213618932684</v>
       </c>
       <c r="X38" t="n">
-        <v>166.6114938543246</v>
+        <v>166.6114938543245</v>
       </c>
       <c r="Y38" t="n">
-        <v>183.1183318319091</v>
+        <v>183.118331831909</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>60.120506271968</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.28292963098976</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.72298284202647</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>22.80436053730086</v>
+        <v>149.4384111771903</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>29.6809803252807</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.02955313869837</v>
+        <v>17.02955313869828</v>
       </c>
       <c r="T40" t="n">
-        <v>23.87778443259772</v>
+        <v>23.87778443259764</v>
       </c>
       <c r="U40" t="n">
-        <v>83.18731787483739</v>
+        <v>83.1873178748373</v>
       </c>
       <c r="V40" t="n">
-        <v>49.01803649968352</v>
+        <v>49.01803649968343</v>
       </c>
       <c r="W40" t="n">
-        <v>83.40339151244652</v>
+        <v>83.40339151244643</v>
       </c>
       <c r="X40" t="n">
-        <v>22.59004856489267</v>
+        <v>22.59004856489258</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.46504652795031</v>
+        <v>15.46504652795022</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.6142348393359</v>
+        <v>179.614234839336</v>
       </c>
       <c r="C41" t="n">
-        <v>162.1532849468629</v>
+        <v>162.153284946863</v>
       </c>
       <c r="D41" t="n">
-        <v>151.5634347965383</v>
+        <v>151.5634347965384</v>
       </c>
       <c r="E41" t="n">
-        <v>178.8107632481171</v>
+        <v>178.8107632481172</v>
       </c>
       <c r="F41" t="n">
         <v>203.7564389175668</v>
@@ -3755,7 +3755,7 @@
         <v>211.6884009703541</v>
       </c>
       <c r="H41" t="n">
-        <v>131.2885445401555</v>
+        <v>131.2885445401556</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.8105633879011</v>
+        <v>17.81056338790116</v>
       </c>
       <c r="U41" t="n">
-        <v>48.18646770604094</v>
+        <v>48.18646770604099</v>
       </c>
       <c r="V41" t="n">
         <v>124.6326516459903</v>
@@ -3806,7 +3806,7 @@
         <v>166.6114938543244</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.1183318319089</v>
+        <v>183.118331831909</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,16 +3825,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0788134263626</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>166.766415290016</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0977868783158</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9239673614453</v>
+        <v>62.95492551816416</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,10 +3882,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>2.653378379332878</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.34388671342178</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.0295531386982</v>
+        <v>17.02955313869825</v>
       </c>
       <c r="T43" t="n">
-        <v>23.87778443259755</v>
+        <v>23.87778443259761</v>
       </c>
       <c r="U43" t="n">
-        <v>83.18731787483722</v>
+        <v>83.18731787483728</v>
       </c>
       <c r="V43" t="n">
-        <v>49.01803649968335</v>
+        <v>49.0180364996834</v>
       </c>
       <c r="W43" t="n">
-        <v>83.40339151244635</v>
+        <v>83.4033915124464</v>
       </c>
       <c r="X43" t="n">
-        <v>22.5900485648925</v>
+        <v>22.59004856489256</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.46504652795014</v>
+        <v>15.46504652795019</v>
       </c>
     </row>
     <row r="44">
@@ -4059,19 +4059,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>30.4329044083146</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>78.37486911927789</v>
       </c>
       <c r="S45" t="n">
         <v>166.766415290016</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U45" t="n">
-        <v>22.80436053730075</v>
+        <v>225.9239673614453</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4334,46 +4334,46 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N2" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>20.97193951221988</v>
-      </c>
-      <c r="N2" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4416,31 +4416,31 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N3" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S3" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="S3" t="n">
-        <v>15.19521781052957</v>
-      </c>
       <c r="T3" t="n">
+        <v>13.6131814684388</v>
+      </c>
+      <c r="U3" t="n">
         <v>8.2497170613261</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.304216312122629</v>
       </c>
       <c r="V3" t="n">
         <v>1.304216312122629</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4513,25 +4513,25 @@
         <v>10.86425143297768</v>
       </c>
       <c r="S4" t="n">
-        <v>10.86425143297768</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="T4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="U4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F5" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4568,19 +4568,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N5" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4589,28 +4589,28 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="D6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H6" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I6" t="n">
         <v>1.304216312122629</v>
@@ -4653,43 +4653,43 @@
         <v>14.16465422792556</v>
       </c>
       <c r="M6" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N6" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O6" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="U6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="V6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="W6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
     </row>
     <row r="7">
@@ -4705,16 +4705,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="D7" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E7" t="n">
         <v>21.38658590694733</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="G7" t="n">
         <v>14.44108515774386</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
         <v>7.495584408540386</v>
@@ -4781,25 +4781,25 @@
         <v>51.11933469231312</v>
       </c>
       <c r="C8" t="n">
-        <v>51.11933469231312</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="D8" t="n">
-        <v>47.59615086525642</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="E8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F8" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
@@ -4808,13 +4808,13 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N8" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O8" t="n">
         <v>61.2109500605402</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
         <v>1.978351653996518</v>
@@ -4887,19 +4887,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M9" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N9" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O9" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
@@ -4908,25 +4908,25 @@
         <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F10" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G10" t="n">
         <v>1.224219001210804</v>
@@ -4978,34 +4978,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S10" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T10" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U10" t="n">
-        <v>43.00470940373054</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V10" t="n">
-        <v>43.00470940373054</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W10" t="n">
-        <v>43.00470940373054</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X10" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>875.6401324261715</v>
+        <v>1014.762383873604</v>
       </c>
       <c r="C11" t="n">
-        <v>875.6401324261715</v>
+        <v>777.7300548963375</v>
       </c>
       <c r="D11" t="n">
-        <v>649.3046217825666</v>
+        <v>551.3945442527325</v>
       </c>
       <c r="E11" t="n">
-        <v>584.6042793256988</v>
+        <v>297.5364796176339</v>
       </c>
       <c r="F11" t="n">
-        <v>584.6042793256988</v>
+        <v>297.5364796176339</v>
       </c>
       <c r="G11" t="n">
-        <v>297.5364796176336</v>
+        <v>297.5364796176339</v>
       </c>
       <c r="H11" t="n">
-        <v>91.6806561016881</v>
+        <v>91.68065610168827</v>
       </c>
       <c r="I11" t="n">
         <v>30.27466021071939</v>
@@ -5072,19 +5072,19 @@
         <v>1354.687743745806</v>
       </c>
       <c r="U11" t="n">
-        <v>1354.687743745806</v>
+        <v>1269.43203597458</v>
       </c>
       <c r="V11" t="n">
-        <v>1354.687743745806</v>
+        <v>1269.43203597458</v>
       </c>
       <c r="W11" t="n">
-        <v>1133.849276438837</v>
+        <v>1269.43203597458</v>
       </c>
       <c r="X11" t="n">
-        <v>1133.849276438837</v>
+        <v>1269.43203597458</v>
       </c>
       <c r="Y11" t="n">
-        <v>875.6401324261715</v>
+        <v>1269.43203597458</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>534.0371841107939</v>
+        <v>502.4015215933426</v>
       </c>
       <c r="C12" t="n">
-        <v>491.5143427928124</v>
+        <v>459.8786802753611</v>
       </c>
       <c r="D12" t="n">
-        <v>342.5799331315611</v>
+        <v>310.9442706141099</v>
       </c>
       <c r="E12" t="n">
-        <v>315.2726660892512</v>
+        <v>283.6370035717999</v>
       </c>
       <c r="F12" t="n">
-        <v>168.7381081161362</v>
+        <v>137.1024455986849</v>
       </c>
       <c r="G12" t="n">
         <v>30.27466021071939</v>
@@ -5118,52 +5118,52 @@
         <v>30.27466021071939</v>
       </c>
       <c r="J12" t="n">
-        <v>54.29414604109608</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="K12" t="n">
-        <v>54.29414604109608</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="L12" t="n">
-        <v>117.8011212492346</v>
+        <v>317.1374016393085</v>
       </c>
       <c r="M12" t="n">
-        <v>492.4500413568871</v>
+        <v>691.786321746961</v>
       </c>
       <c r="N12" t="n">
-        <v>867.0989614645396</v>
+        <v>969.9448277921347</v>
       </c>
       <c r="O12" t="n">
-        <v>1178.202330709321</v>
+        <v>1281.048197036916</v>
       </c>
       <c r="P12" t="n">
-        <v>1410.887144208375</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="Q12" t="n">
         <v>1513.73301053597</v>
       </c>
       <c r="R12" t="n">
-        <v>1429.164340998569</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="S12" t="n">
-        <v>1392.643604426345</v>
+        <v>1477.212273963745</v>
       </c>
       <c r="T12" t="n">
-        <v>1323.464916754828</v>
+        <v>1408.033586292229</v>
       </c>
       <c r="U12" t="n">
-        <v>1211.463221171856</v>
+        <v>1311.757746617551</v>
       </c>
       <c r="V12" t="n">
-        <v>976.3111129401135</v>
+        <v>1076.605638385808</v>
       </c>
       <c r="W12" t="n">
-        <v>854.0039441750574</v>
+        <v>954.2984696207518</v>
       </c>
       <c r="X12" t="n">
-        <v>778.0826319326702</v>
+        <v>746.446969415219</v>
       </c>
       <c r="Y12" t="n">
-        <v>702.2525211308619</v>
+        <v>538.6866706502651</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.2353167022636</v>
+        <v>202.2353167022638</v>
       </c>
       <c r="C13" t="n">
-        <v>165.2293217375023</v>
+        <v>165.2293217375025</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0428702883121</v>
+        <v>147.0428702883123</v>
       </c>
       <c r="E13" t="n">
-        <v>131.0599646690646</v>
+        <v>131.0599646690647</v>
       </c>
       <c r="F13" t="n">
-        <v>116.1002051342998</v>
+        <v>116.1002051342999</v>
       </c>
       <c r="G13" t="n">
-        <v>78.56669548384926</v>
+        <v>78.56669548384932</v>
       </c>
       <c r="H13" t="n">
-        <v>48.62404169601444</v>
+        <v>48.62404169601447</v>
       </c>
       <c r="I13" t="n">
         <v>30.27466021071939</v>
       </c>
       <c r="J13" t="n">
-        <v>82.68660615674435</v>
+        <v>82.68660615674432</v>
       </c>
       <c r="K13" t="n">
-        <v>215.4696777610534</v>
+        <v>215.4696777610533</v>
       </c>
       <c r="L13" t="n">
-        <v>404.751908860339</v>
+        <v>404.7519088603389</v>
       </c>
       <c r="M13" t="n">
-        <v>607.6836248308432</v>
+        <v>492.366507438467</v>
       </c>
       <c r="N13" t="n">
-        <v>814.2992731840769</v>
+        <v>698.9821557917007</v>
       </c>
       <c r="O13" t="n">
-        <v>883.6797401160486</v>
+        <v>883.6797401160491</v>
       </c>
       <c r="P13" t="n">
-        <v>1036.861950988455</v>
+        <v>1036.861950988456</v>
       </c>
       <c r="Q13" t="n">
-        <v>1099.263145444016</v>
+        <v>1099.263145444017</v>
       </c>
       <c r="R13" t="n">
         <v>1062.188162999175</v>
       </c>
       <c r="S13" t="n">
-        <v>971.7454621109641</v>
+        <v>971.7454621109646</v>
       </c>
       <c r="T13" t="n">
-        <v>874.3853558753802</v>
+        <v>874.3853558753806</v>
       </c>
       <c r="U13" t="n">
-        <v>717.1166300011704</v>
+        <v>717.1166300011707</v>
       </c>
       <c r="V13" t="n">
-        <v>594.362329758429</v>
+        <v>594.3623297584294</v>
       </c>
       <c r="W13" t="n">
-        <v>436.875347684614</v>
+        <v>436.8753476846143</v>
       </c>
       <c r="X13" t="n">
-        <v>340.8159847497423</v>
+        <v>340.8159847497425</v>
       </c>
       <c r="Y13" t="n">
-        <v>251.9535935693577</v>
+        <v>251.953593569358</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>584.6042793256986</v>
+        <v>760.2306124119963</v>
       </c>
       <c r="C14" t="n">
-        <v>584.6042793256986</v>
+        <v>523.1982834347302</v>
       </c>
       <c r="D14" t="n">
-        <v>584.6042793256986</v>
+        <v>523.1982834347302</v>
       </c>
       <c r="E14" t="n">
-        <v>584.6042793256986</v>
+        <v>523.1982834347302</v>
       </c>
       <c r="F14" t="n">
-        <v>584.6042793256986</v>
+        <v>523.1982834347302</v>
       </c>
       <c r="G14" t="n">
-        <v>297.5364796176335</v>
+        <v>236.1304837266649</v>
       </c>
       <c r="H14" t="n">
-        <v>91.68065610168809</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="I14" t="n">
         <v>30.27466021071939</v>
       </c>
       <c r="J14" t="n">
-        <v>60.01453471024344</v>
+        <v>60.01453471024343</v>
       </c>
       <c r="K14" t="n">
         <v>225.3317015655473</v>
@@ -5297,31 +5297,31 @@
         <v>1470.732811080194</v>
       </c>
       <c r="Q14" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535969</v>
       </c>
       <c r="R14" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535969</v>
       </c>
       <c r="S14" t="n">
-        <v>1445.919343875636</v>
+        <v>1513.733010535969</v>
       </c>
       <c r="T14" t="n">
-        <v>1427.101792707582</v>
+        <v>1422.50141040614</v>
       </c>
       <c r="U14" t="n">
-        <v>1305.187460943268</v>
+        <v>1300.587078641825</v>
       </c>
       <c r="V14" t="n">
-        <v>1305.187460943268</v>
+        <v>1300.587078641825</v>
       </c>
       <c r="W14" t="n">
-        <v>1084.348993636299</v>
+        <v>1273.109408525639</v>
       </c>
       <c r="X14" t="n">
-        <v>842.8134233383646</v>
+        <v>1273.109408525639</v>
       </c>
       <c r="Y14" t="n">
-        <v>584.6042793256986</v>
+        <v>1014.900264512973</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>502.4015215933435</v>
+        <v>766.2618975196335</v>
       </c>
       <c r="C15" t="n">
-        <v>459.8786802753622</v>
+        <v>591.8088682385065</v>
       </c>
       <c r="D15" t="n">
-        <v>310.9442706141109</v>
+        <v>442.8744585772553</v>
       </c>
       <c r="E15" t="n">
-        <v>151.7068156086554</v>
+        <v>283.6370035717998</v>
       </c>
       <c r="F15" t="n">
-        <v>137.102445598686</v>
+        <v>137.1024455986847</v>
       </c>
       <c r="G15" t="n">
         <v>30.27466021071939</v>
@@ -5355,52 +5355,52 @@
         <v>30.27466021071939</v>
       </c>
       <c r="J15" t="n">
-        <v>30.27466021071939</v>
+        <v>54.29414604109608</v>
       </c>
       <c r="K15" t="n">
-        <v>30.27466021071939</v>
+        <v>221.9681162074348</v>
       </c>
       <c r="L15" t="n">
-        <v>220.6469875768298</v>
+        <v>508.8308576360239</v>
       </c>
       <c r="M15" t="n">
-        <v>595.2959076844822</v>
+        <v>867.0989614645393</v>
       </c>
       <c r="N15" t="n">
-        <v>969.9448277921347</v>
+        <v>867.0989614645393</v>
       </c>
       <c r="O15" t="n">
-        <v>1281.048197036916</v>
+        <v>1178.20233070932</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.73301053597</v>
+        <v>1410.887144208374</v>
       </c>
       <c r="Q15" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535969</v>
       </c>
       <c r="R15" t="n">
-        <v>1513.73301053597</v>
+        <v>1513.733010535969</v>
       </c>
       <c r="S15" t="n">
-        <v>1477.212273963746</v>
+        <v>1477.212273963745</v>
       </c>
       <c r="T15" t="n">
-        <v>1408.033586292229</v>
+        <v>1408.033586292228</v>
       </c>
       <c r="U15" t="n">
-        <v>1311.757746617551</v>
+        <v>1311.75774661755</v>
       </c>
       <c r="V15" t="n">
-        <v>1076.605638385809</v>
+        <v>1208.535826348953</v>
       </c>
       <c r="W15" t="n">
-        <v>822.368281657607</v>
+        <v>1086.228657583897</v>
       </c>
       <c r="X15" t="n">
-        <v>614.5167814520742</v>
+        <v>1010.30734534151</v>
       </c>
       <c r="Y15" t="n">
-        <v>538.6866706502659</v>
+        <v>934.4772345397015</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.235316702263</v>
+        <v>202.2353167022638</v>
       </c>
       <c r="C16" t="n">
-        <v>165.2293217375018</v>
+        <v>165.2293217375025</v>
       </c>
       <c r="D16" t="n">
-        <v>147.0428702883117</v>
+        <v>147.0428702883123</v>
       </c>
       <c r="E16" t="n">
-        <v>131.0599646690643</v>
+        <v>131.0599646690647</v>
       </c>
       <c r="F16" t="n">
-        <v>116.1002051342996</v>
+        <v>116.1002051342999</v>
       </c>
       <c r="G16" t="n">
-        <v>78.56669548384909</v>
+        <v>78.56669548384932</v>
       </c>
       <c r="H16" t="n">
-        <v>48.62404169601436</v>
+        <v>48.62404169601447</v>
       </c>
       <c r="I16" t="n">
         <v>30.27466021071939</v>
       </c>
       <c r="J16" t="n">
-        <v>82.68660615674443</v>
+        <v>82.68660615674432</v>
       </c>
       <c r="K16" t="n">
-        <v>215.4696777610535</v>
+        <v>215.4696777610533</v>
       </c>
       <c r="L16" t="n">
-        <v>404.7519088603392</v>
+        <v>289.4347914679628</v>
       </c>
       <c r="M16" t="n">
-        <v>492.366507438465</v>
+        <v>492.366507438467</v>
       </c>
       <c r="N16" t="n">
-        <v>698.9821557916988</v>
+        <v>698.9821557917007</v>
       </c>
       <c r="O16" t="n">
-        <v>883.6797401160472</v>
+        <v>883.6797401160491</v>
       </c>
       <c r="P16" t="n">
-        <v>1036.861950988454</v>
+        <v>1036.861950988456</v>
       </c>
       <c r="Q16" t="n">
-        <v>1099.263145444015</v>
+        <v>1099.263145444017</v>
       </c>
       <c r="R16" t="n">
-        <v>1062.188162999174</v>
+        <v>1062.188162999175</v>
       </c>
       <c r="S16" t="n">
-        <v>971.7454621109631</v>
+        <v>971.7454621109646</v>
       </c>
       <c r="T16" t="n">
-        <v>874.3853558753792</v>
+        <v>874.3853558753806</v>
       </c>
       <c r="U16" t="n">
-        <v>717.1166300011694</v>
+        <v>717.1166300011707</v>
       </c>
       <c r="V16" t="n">
-        <v>594.3623297584281</v>
+        <v>594.3623297584294</v>
       </c>
       <c r="W16" t="n">
-        <v>436.8753476846131</v>
+        <v>436.8753476846143</v>
       </c>
       <c r="X16" t="n">
-        <v>340.8159847497415</v>
+        <v>340.8159847497425</v>
       </c>
       <c r="Y16" t="n">
-        <v>251.9535935693571</v>
+        <v>251.953593569358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>868.4565250949233</v>
+        <v>868.4565250949238</v>
       </c>
       <c r="C17" t="n">
-        <v>739.9280926880302</v>
+        <v>739.9280926880307</v>
       </c>
       <c r="D17" t="n">
-        <v>622.0964786147986</v>
+        <v>622.0964786147989</v>
       </c>
       <c r="E17" t="n">
-        <v>476.7423105500732</v>
+        <v>476.7423105500734</v>
       </c>
       <c r="F17" t="n">
-        <v>306.1904902939841</v>
+        <v>306.1904902939846</v>
       </c>
       <c r="G17" t="n">
         <v>127.6265871562918</v>
@@ -5519,10 +5519,10 @@
         <v>225.3317015655473</v>
       </c>
       <c r="L17" t="n">
-        <v>482.6988929356329</v>
+        <v>482.6988929356328</v>
       </c>
       <c r="M17" t="n">
-        <v>785.6760281566369</v>
+        <v>785.6760281566368</v>
       </c>
       <c r="N17" t="n">
         <v>1078.923652632546</v>
@@ -5555,10 +5555,10 @@
         <v>1297.359201795381</v>
       </c>
       <c r="X17" t="n">
-        <v>1164.327528067819</v>
+        <v>1164.32752806782</v>
       </c>
       <c r="Y17" t="n">
-        <v>1014.622280625526</v>
+        <v>1014.622280625527</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>591.593570784548</v>
+        <v>212.3103819476471</v>
       </c>
       <c r="C18" t="n">
-        <v>417.140541503421</v>
+        <v>37.85735266652009</v>
       </c>
       <c r="D18" t="n">
-        <v>417.140541503421</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="E18" t="n">
-        <v>257.9030864979655</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="F18" t="n">
-        <v>111.3685285248505</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="G18" t="n">
-        <v>111.3685285248505</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="H18" t="n">
-        <v>111.3685285248505</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="I18" t="n">
         <v>30.27466021071939</v>
       </c>
       <c r="J18" t="n">
-        <v>54.29414604109608</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="K18" t="n">
-        <v>221.9681162074348</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="L18" t="n">
-        <v>508.8308576360239</v>
+        <v>220.6469875768298</v>
       </c>
       <c r="M18" t="n">
-        <v>883.4797777436763</v>
+        <v>595.2959076844822</v>
       </c>
       <c r="N18" t="n">
-        <v>1258.128697851329</v>
+        <v>969.9448277921347</v>
       </c>
       <c r="O18" t="n">
-        <v>1513.73301053597</v>
+        <v>1281.048197036916</v>
       </c>
       <c r="P18" t="n">
         <v>1513.73301053597</v>
@@ -5616,28 +5616,28 @@
         <v>1513.73301053597</v>
       </c>
       <c r="R18" t="n">
-        <v>1429.164340998569</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="S18" t="n">
-        <v>1429.164340998569</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="T18" t="n">
-        <v>1228.055465363907</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="U18" t="n">
-        <v>1221.89776473835</v>
+        <v>1285.526982898146</v>
       </c>
       <c r="V18" t="n">
-        <v>1221.89776473835</v>
+        <v>1050.374874666403</v>
       </c>
       <c r="W18" t="n">
-        <v>967.6604080101488</v>
+        <v>796.1375179382019</v>
       </c>
       <c r="X18" t="n">
-        <v>759.808907804616</v>
+        <v>588.2860177326691</v>
       </c>
       <c r="Y18" t="n">
-        <v>759.808907804616</v>
+        <v>380.5257189677151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="C19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="D19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="E19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="G19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="H19" t="n">
-        <v>108.7287274249363</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="I19" t="n">
-        <v>108.7287274249363</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="J19" t="n">
         <v>30.27466021071939</v>
@@ -5692,31 +5692,31 @@
         <v>323.9384590987333</v>
       </c>
       <c r="Q19" t="n">
-        <v>323.9384590987333</v>
+        <v>255.6764626013167</v>
       </c>
       <c r="R19" t="n">
-        <v>323.9384590987333</v>
+        <v>142.2729786903663</v>
       </c>
       <c r="S19" t="n">
-        <v>323.9384590987333</v>
+        <v>142.2729786903663</v>
       </c>
       <c r="T19" t="n">
-        <v>323.9384590987333</v>
+        <v>142.2729786903663</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1736297948966</v>
+        <v>93.50814938652952</v>
       </c>
       <c r="V19" t="n">
-        <v>260.9232261225284</v>
+        <v>79.25774571416133</v>
       </c>
       <c r="W19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="X19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.9401406190865</v>
+        <v>30.27466021071939</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>868.4565250949236</v>
+        <v>868.4565250949238</v>
       </c>
       <c r="C20" t="n">
         <v>739.9280926880307</v>
@@ -5735,10 +5735,10 @@
         <v>622.0964786147989</v>
       </c>
       <c r="E20" t="n">
-        <v>476.7423105500733</v>
+        <v>476.7423105500734</v>
       </c>
       <c r="F20" t="n">
-        <v>306.1904902939845</v>
+        <v>306.1904902939846</v>
       </c>
       <c r="G20" t="n">
         <v>127.6265871562918</v>
@@ -5747,19 +5747,19 @@
         <v>30.27466021071939</v>
       </c>
       <c r="I20" t="n">
-        <v>30.27466021071939</v>
+        <v>30.2746602107195</v>
       </c>
       <c r="J20" t="n">
-        <v>60.01453471024344</v>
+        <v>60.01453471024354</v>
       </c>
       <c r="K20" t="n">
-        <v>225.3317015655473</v>
+        <v>225.3317015655475</v>
       </c>
       <c r="L20" t="n">
-        <v>482.6988929356328</v>
+        <v>482.6988929356329</v>
       </c>
       <c r="M20" t="n">
-        <v>785.6760281566368</v>
+        <v>785.6760281566369</v>
       </c>
       <c r="N20" t="n">
         <v>1078.923652632546</v>
@@ -5768,16 +5768,16 @@
         <v>1310.641431070883</v>
       </c>
       <c r="P20" t="n">
-        <v>1470.732811080194</v>
+        <v>1470.732811080195</v>
       </c>
       <c r="Q20" t="n">
-        <v>1513.733010535969</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="R20" t="n">
-        <v>1513.733010535969</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="S20" t="n">
-        <v>1513.733010535969</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="T20" t="n">
         <v>1513.73301053597</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>908.6843917639229</v>
+        <v>212.3103819476471</v>
       </c>
       <c r="C21" t="n">
-        <v>734.2313624827959</v>
+        <v>37.85735266652009</v>
       </c>
       <c r="D21" t="n">
-        <v>585.2969528215447</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="E21" t="n">
-        <v>426.0594978160891</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="F21" t="n">
-        <v>279.524939842974</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="G21" t="n">
-        <v>141.0614919375573</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="H21" t="n">
         <v>30.27466021071939</v>
@@ -5835,16 +5835,16 @@
         <v>30.27466021071939</v>
       </c>
       <c r="L21" t="n">
-        <v>220.6469875768298</v>
+        <v>317.1374016393085</v>
       </c>
       <c r="M21" t="n">
-        <v>595.2959076844822</v>
+        <v>691.786321746961</v>
       </c>
       <c r="N21" t="n">
-        <v>969.9448277921347</v>
+        <v>1066.435241854613</v>
       </c>
       <c r="O21" t="n">
-        <v>1281.048197036916</v>
+        <v>1377.538611099395</v>
       </c>
       <c r="P21" t="n">
         <v>1513.73301053597</v>
@@ -5862,19 +5862,19 @@
         <v>1513.73301053597</v>
       </c>
       <c r="U21" t="n">
-        <v>1513.73301053597</v>
+        <v>1285.526982898146</v>
       </c>
       <c r="V21" t="n">
-        <v>1506.31479994916</v>
+        <v>1050.374874666403</v>
       </c>
       <c r="W21" t="n">
-        <v>1492.511527754478</v>
+        <v>796.1375179382019</v>
       </c>
       <c r="X21" t="n">
-        <v>1284.660027548945</v>
+        <v>588.2860177326691</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.899728783991</v>
+        <v>380.5257189677151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="C22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="D22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="E22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="F22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="G22" t="n">
         <v>30.27466021071939</v>
@@ -5929,31 +5929,31 @@
         <v>323.9384590987333</v>
       </c>
       <c r="Q22" t="n">
-        <v>255.6764626013167</v>
+        <v>323.9384590987333</v>
       </c>
       <c r="R22" t="n">
-        <v>255.6764626013167</v>
+        <v>154.9332886907464</v>
       </c>
       <c r="S22" t="n">
-        <v>255.6764626013167</v>
+        <v>142.2729786903663</v>
       </c>
       <c r="T22" t="n">
-        <v>255.6764626013167</v>
+        <v>142.2729786903663</v>
       </c>
       <c r="U22" t="n">
-        <v>206.91163329748</v>
+        <v>93.50814938652952</v>
       </c>
       <c r="V22" t="n">
-        <v>192.6612296251118</v>
+        <v>79.25774571416133</v>
       </c>
       <c r="W22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="X22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.6781441216698</v>
+        <v>30.27466021071939</v>
       </c>
     </row>
     <row r="23">
@@ -6014,7 +6014,7 @@
         <v>1513.733010535969</v>
       </c>
       <c r="S23" t="n">
-        <v>1513.733010535969</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="T23" t="n">
         <v>1513.73301053597</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>659.4341121316681</v>
+        <v>204.7276894918464</v>
       </c>
       <c r="C24" t="n">
-        <v>484.9810828505412</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="D24" t="n">
-        <v>336.0466731892899</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="E24" t="n">
-        <v>176.8092181838344</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="F24" t="n">
         <v>30.27466021071939</v>
@@ -6066,52 +6066,52 @@
         <v>30.27466021071939</v>
       </c>
       <c r="J24" t="n">
-        <v>54.29414604109608</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="K24" t="n">
-        <v>221.9681162074348</v>
+        <v>30.27466021071939</v>
       </c>
       <c r="L24" t="n">
-        <v>350.4859347482886</v>
+        <v>317.1374016393085</v>
       </c>
       <c r="M24" t="n">
-        <v>725.1348548559411</v>
+        <v>691.786321746961</v>
       </c>
       <c r="N24" t="n">
-        <v>1099.783774963593</v>
+        <v>969.9448277921347</v>
       </c>
       <c r="O24" t="n">
-        <v>1410.887144208375</v>
+        <v>1281.048197036916</v>
       </c>
       <c r="P24" t="n">
-        <v>1410.887144208375</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="Q24" t="n">
         <v>1513.73301053597</v>
       </c>
       <c r="R24" t="n">
-        <v>1497.498604850424</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="S24" t="n">
-        <v>1497.498604850424</v>
+        <v>1513.73301053597</v>
       </c>
       <c r="T24" t="n">
-        <v>1497.498604850424</v>
+        <v>1506.150318080169</v>
       </c>
       <c r="U24" t="n">
-        <v>1497.498604850424</v>
+        <v>1277.944290442345</v>
       </c>
       <c r="V24" t="n">
-        <v>1497.498604850424</v>
+        <v>1042.792182210603</v>
       </c>
       <c r="W24" t="n">
-        <v>1243.261248122223</v>
+        <v>788.5548254824012</v>
       </c>
       <c r="X24" t="n">
-        <v>1035.40974791669</v>
+        <v>580.7033252768683</v>
       </c>
       <c r="Y24" t="n">
-        <v>827.6494491517362</v>
+        <v>372.9430265119145</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6169,13 @@
         <v>323.9384590987333</v>
       </c>
       <c r="R25" t="n">
-        <v>323.9384590987333</v>
+        <v>154.9332886907464</v>
       </c>
       <c r="S25" t="n">
-        <v>142.2729786903663</v>
+        <v>154.9332886907464</v>
       </c>
       <c r="T25" t="n">
-        <v>142.2729786903663</v>
+        <v>154.9332886907464</v>
       </c>
       <c r="U25" t="n">
         <v>93.50814938652952</v>
@@ -6206,19 +6206,19 @@
         <v>1248.818087893107</v>
       </c>
       <c r="D26" t="n">
-        <v>1042.480107071106</v>
+        <v>1042.480107071107</v>
       </c>
       <c r="E26" t="n">
-        <v>808.6195722576122</v>
+        <v>808.6195722576124</v>
       </c>
       <c r="F26" t="n">
-        <v>549.5613852527545</v>
+        <v>549.5613852527547</v>
       </c>
       <c r="G26" t="n">
-        <v>282.4911153662935</v>
+        <v>282.4911153662938</v>
       </c>
       <c r="H26" t="n">
-        <v>96.63282167195217</v>
+        <v>96.63282167195257</v>
       </c>
       <c r="I26" t="n">
         <v>55.22435560258766</v>
@@ -6230,7 +6230,7 @@
         <v>548.0901093590824</v>
       </c>
       <c r="L26" t="n">
-        <v>954.3616569300012</v>
+        <v>954.3616569300011</v>
       </c>
       <c r="M26" t="n">
         <v>1406.243148351838</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>385.9215317656716</v>
+        <v>684.3838075235365</v>
       </c>
       <c r="C27" t="n">
-        <v>211.4685024845446</v>
+        <v>509.9307782424095</v>
       </c>
       <c r="D27" t="n">
-        <v>62.53409282329331</v>
+        <v>360.9963685811582</v>
       </c>
       <c r="E27" t="n">
-        <v>55.22435560258766</v>
+        <v>201.7589135757027</v>
       </c>
       <c r="F27" t="n">
         <v>55.22435560258766</v>
@@ -6330,25 +6330,25 @@
         <v>1979.826348105986</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.453035988656</v>
+        <v>1963.303141355366</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.344160353994</v>
+        <v>1914.121983505454</v>
       </c>
       <c r="U27" t="n">
-        <v>1459.138132716171</v>
+        <v>1757.600408474035</v>
       </c>
       <c r="V27" t="n">
-        <v>1223.986024484428</v>
+        <v>1522.448300242293</v>
       </c>
       <c r="W27" t="n">
-        <v>969.7486677562263</v>
+        <v>1268.210943514091</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8971675506934</v>
+        <v>1060.359443308558</v>
       </c>
       <c r="Y27" t="n">
-        <v>554.1368687857396</v>
+        <v>852.5991445436046</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.93888662801845</v>
+        <v>90.84167270196014</v>
       </c>
       <c r="C28" t="n">
-        <v>80.9304214848614</v>
+        <v>73.83320755880312</v>
       </c>
       <c r="D28" t="n">
-        <v>82.7054593976645</v>
+        <v>73.83320755880312</v>
       </c>
       <c r="E28" t="n">
-        <v>82.7054593976645</v>
+        <v>77.767940739533</v>
       </c>
       <c r="F28" t="n">
-        <v>82.7054593976645</v>
+        <v>82.70545939766444</v>
       </c>
       <c r="G28" t="n">
-        <v>65.16947956881819</v>
+        <v>65.16947956881816</v>
       </c>
       <c r="H28" t="n">
         <v>55.22435560258766</v>
@@ -6382,52 +6382,52 @@
         <v>55.22435560258766</v>
       </c>
       <c r="J28" t="n">
-        <v>55.22435560258766</v>
+        <v>127.235880526767</v>
       </c>
       <c r="K28" t="n">
-        <v>58.7026499842177</v>
+        <v>130.714174908397</v>
       </c>
       <c r="L28" t="n">
-        <v>118.6801038608243</v>
+        <v>197.8741965841145</v>
       </c>
       <c r="M28" t="n">
-        <v>341.211398809483</v>
+        <v>271.5011353319398</v>
       </c>
       <c r="N28" t="n">
-        <v>418.5222699400378</v>
+        <v>497.716362663328</v>
       </c>
       <c r="O28" t="n">
-        <v>560.2063836910563</v>
+        <v>702.0135259658308</v>
       </c>
       <c r="P28" t="n">
-        <v>732.9881735416175</v>
+        <v>725.8909596155586</v>
       </c>
       <c r="Q28" t="n">
-        <v>814.9889469753327</v>
+        <v>807.891733049274</v>
       </c>
       <c r="R28" t="n">
-        <v>797.9114943520956</v>
+        <v>790.8142804260369</v>
       </c>
       <c r="S28" t="n">
-        <v>727.466323285489</v>
+        <v>720.3691093594304</v>
       </c>
       <c r="T28" t="n">
-        <v>650.1037468715093</v>
+        <v>643.0065329454508</v>
       </c>
       <c r="U28" t="n">
-        <v>512.8325508189038</v>
+        <v>505.7353368928453</v>
       </c>
       <c r="V28" t="n">
-        <v>410.0757803977668</v>
+        <v>402.9785664717083</v>
       </c>
       <c r="W28" t="n">
-        <v>272.586328145556</v>
+        <v>265.4891142194976</v>
       </c>
       <c r="X28" t="n">
-        <v>196.5244950322885</v>
+        <v>189.4272811062302</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.6596336735083</v>
+        <v>120.56241974745</v>
       </c>
     </row>
     <row r="29">
@@ -6446,40 +6446,40 @@
         <v>1042.480107071106</v>
       </c>
       <c r="E29" t="n">
-        <v>808.6195722576119</v>
+        <v>808.6195722576118</v>
       </c>
       <c r="F29" t="n">
-        <v>549.5613852527542</v>
+        <v>549.5613852527541</v>
       </c>
       <c r="G29" t="n">
-        <v>282.4911153662933</v>
+        <v>282.4911153662932</v>
       </c>
       <c r="H29" t="n">
-        <v>96.63282167195214</v>
+        <v>96.63282167195217</v>
       </c>
       <c r="I29" t="n">
         <v>55.22435560258766</v>
       </c>
       <c r="J29" t="n">
-        <v>233.8685863029451</v>
+        <v>233.8685863029456</v>
       </c>
       <c r="K29" t="n">
-        <v>548.0901093590824</v>
+        <v>548.0901093590828</v>
       </c>
       <c r="L29" t="n">
-        <v>954.3616569300011</v>
+        <v>954.3616569300016</v>
       </c>
       <c r="M29" t="n">
-        <v>1406.243148351838</v>
+        <v>1406.243148351839</v>
       </c>
       <c r="N29" t="n">
-        <v>1848.395129028581</v>
+        <v>1848.395129028582</v>
       </c>
       <c r="O29" t="n">
-        <v>2229.017263667751</v>
+        <v>2229.017263667752</v>
       </c>
       <c r="P29" t="n">
-        <v>2538.012999877896</v>
+        <v>2538.012999877897</v>
       </c>
       <c r="Q29" t="n">
         <v>2729.917555534505</v>
@@ -6488,22 +6488,22 @@
         <v>2761.217780129383</v>
       </c>
       <c r="S29" t="n">
-        <v>2713.401643290654</v>
+        <v>2713.401643290655</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.167572982428</v>
+        <v>2642.167572982429</v>
       </c>
       <c r="U29" t="n">
-        <v>2540.250771039718</v>
+        <v>2540.250771039719</v>
       </c>
       <c r="V29" t="n">
-        <v>2361.115601480897</v>
+        <v>2361.115601480898</v>
       </c>
       <c r="W29" t="n">
-        <v>2160.274663995532</v>
+        <v>2160.274663995533</v>
       </c>
       <c r="X29" t="n">
-        <v>1938.736623519202</v>
+        <v>1938.736623519203</v>
       </c>
       <c r="Y29" t="n">
         <v>1700.525009328141</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>933.6340871557912</v>
+        <v>567.3312700508062</v>
       </c>
       <c r="C30" t="n">
-        <v>759.1810578746642</v>
+        <v>544.805958554429</v>
       </c>
       <c r="D30" t="n">
-        <v>610.246648213413</v>
+        <v>544.805958554429</v>
       </c>
       <c r="E30" t="n">
-        <v>451.0091932079574</v>
+        <v>385.5685035489735</v>
       </c>
       <c r="F30" t="n">
-        <v>304.4746352348424</v>
+        <v>385.5685035489735</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0111873294256</v>
+        <v>247.1050556435567</v>
       </c>
       <c r="H30" t="n">
-        <v>55.22435560258766</v>
+        <v>136.3182239167188</v>
       </c>
       <c r="I30" t="n">
         <v>55.22435560258766</v>
@@ -6564,28 +6564,28 @@
         <v>1979.826348105986</v>
       </c>
       <c r="R30" t="n">
-        <v>1979.826348105986</v>
+        <v>1895.257678568586</v>
       </c>
       <c r="S30" t="n">
-        <v>1963.303141355366</v>
+        <v>1766.007338704291</v>
       </c>
       <c r="T30" t="n">
-        <v>1762.194265720704</v>
+        <v>1564.898463069629</v>
       </c>
       <c r="U30" t="n">
-        <v>1685.91595586763</v>
+        <v>1488.620153216555</v>
       </c>
       <c r="V30" t="n">
-        <v>1450.763847635887</v>
+        <v>1253.468044984813</v>
       </c>
       <c r="W30" t="n">
-        <v>1348.454208692436</v>
+        <v>1151.158406041361</v>
       </c>
       <c r="X30" t="n">
-        <v>1140.602708486903</v>
+        <v>943.306905835828</v>
       </c>
       <c r="Y30" t="n">
-        <v>949.9217063911094</v>
+        <v>735.5466070708742</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.71392454082155</v>
+        <v>89.06663478915718</v>
       </c>
       <c r="C31" t="n">
-        <v>82.7054593976645</v>
+        <v>72.05816964600012</v>
       </c>
       <c r="D31" t="n">
-        <v>82.7054593976645</v>
+        <v>73.83320755880322</v>
       </c>
       <c r="E31" t="n">
-        <v>82.7054593976645</v>
+        <v>77.76794073953309</v>
       </c>
       <c r="F31" t="n">
         <v>82.7054593976645</v>
@@ -6619,52 +6619,52 @@
         <v>55.22435560258766</v>
       </c>
       <c r="J31" t="n">
-        <v>76.38711739762189</v>
+        <v>55.22435560258766</v>
       </c>
       <c r="K31" t="n">
-        <v>79.86541177925193</v>
+        <v>58.7026499842177</v>
       </c>
       <c r="L31" t="n">
-        <v>288.7472218566919</v>
+        <v>118.6801038608243</v>
       </c>
       <c r="M31" t="n">
-        <v>511.2785168053505</v>
+        <v>192.3070426086497</v>
       </c>
       <c r="N31" t="n">
-        <v>737.4937441367387</v>
+        <v>347.0369685496922</v>
       </c>
       <c r="O31" t="n">
-        <v>792.8865512384081</v>
+        <v>551.334131852195</v>
       </c>
       <c r="P31" t="n">
-        <v>816.7639848881358</v>
+        <v>724.1159217027562</v>
       </c>
       <c r="Q31" t="n">
-        <v>816.7639848881358</v>
+        <v>806.1166951364714</v>
       </c>
       <c r="R31" t="n">
-        <v>799.6865322648987</v>
+        <v>789.0392425132343</v>
       </c>
       <c r="S31" t="n">
-        <v>729.2413611982921</v>
+        <v>718.5940714466277</v>
       </c>
       <c r="T31" t="n">
-        <v>651.8787847843124</v>
+        <v>641.231495032648</v>
       </c>
       <c r="U31" t="n">
-        <v>514.6075887317069</v>
+        <v>503.9602989800425</v>
       </c>
       <c r="V31" t="n">
-        <v>411.8508183105699</v>
+        <v>401.2035285589055</v>
       </c>
       <c r="W31" t="n">
-        <v>274.3613660583591</v>
+        <v>263.7140763066947</v>
       </c>
       <c r="X31" t="n">
-        <v>198.2995329450916</v>
+        <v>187.6522431934272</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.4346715863114</v>
+        <v>118.787381834647</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1449.763523556046</v>
+        <v>1449.763523556045</v>
       </c>
       <c r="C32" t="n">
         <v>1234.930899850505</v>
       </c>
       <c r="D32" t="n">
-        <v>1030.795094478626</v>
+        <v>1030.795094478625</v>
       </c>
       <c r="E32" t="n">
-        <v>799.136735115253</v>
+        <v>799.1367351152523</v>
       </c>
       <c r="F32" t="n">
-        <v>542.2807235605169</v>
+        <v>542.280723560516</v>
       </c>
       <c r="G32" t="n">
-        <v>277.4126291241773</v>
+        <v>277.4126291241764</v>
       </c>
       <c r="H32" t="n">
         <v>93.75651087995689</v>
@@ -6704,34 +6704,34 @@
         <v>551.7326783345363</v>
       </c>
       <c r="L32" t="n">
-        <v>907.704776884323</v>
+        <v>960.1625780641191</v>
       </c>
       <c r="M32" t="n">
-        <v>1361.744620464824</v>
+        <v>1414.20242164462</v>
       </c>
       <c r="N32" t="n">
-        <v>1806.054953300231</v>
+        <v>1858.512754480027</v>
       </c>
       <c r="O32" t="n">
-        <v>2188.835440098065</v>
+        <v>2241.293241277861</v>
       </c>
       <c r="P32" t="n">
-        <v>2499.989528466874</v>
+        <v>2533.448105220416</v>
       </c>
       <c r="Q32" t="n">
-        <v>2694.052436282146</v>
+        <v>2727.511013035689</v>
       </c>
       <c r="R32" t="n">
         <v>2727.511013035689</v>
       </c>
       <c r="S32" t="n">
-        <v>2681.897051647081</v>
+        <v>2681.89705164708</v>
       </c>
       <c r="T32" t="n">
         <v>2612.865156788976</v>
       </c>
       <c r="U32" t="n">
-        <v>2513.150530296388</v>
+        <v>2513.150530296387</v>
       </c>
       <c r="V32" t="n">
         <v>2336.217536187688</v>
@@ -6740,7 +6740,7 @@
         <v>2137.578774152445</v>
       </c>
       <c r="X32" t="n">
-        <v>1918.242909126237</v>
+        <v>1918.242909126236</v>
       </c>
       <c r="Y32" t="n">
         <v>1682.233470385296</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>537.1751142085476</v>
+        <v>529.5797789467913</v>
       </c>
       <c r="C33" t="n">
-        <v>362.7220849274206</v>
+        <v>355.1267496656643</v>
       </c>
       <c r="D33" t="n">
-        <v>213.7876752661693</v>
+        <v>206.1923400044131</v>
       </c>
       <c r="E33" t="n">
-        <v>54.55022026071378</v>
+        <v>201.0847782338288</v>
       </c>
       <c r="F33" t="n">
         <v>54.55022026071378</v>
@@ -6801,28 +6801,28 @@
         <v>1979.152212764112</v>
       </c>
       <c r="R33" t="n">
-        <v>1979.152212764112</v>
+        <v>1894.583543226712</v>
       </c>
       <c r="S33" t="n">
-        <v>1964.831181463614</v>
+        <v>1726.132618691342</v>
       </c>
       <c r="T33" t="n">
-        <v>1838.59774279687</v>
+        <v>1676.872514300243</v>
       </c>
       <c r="U33" t="n">
-        <v>1610.391715159046</v>
+        <v>1448.666486662419</v>
       </c>
       <c r="V33" t="n">
-        <v>1375.239606927304</v>
+        <v>1213.514378430677</v>
       </c>
       <c r="W33" t="n">
-        <v>1121.002250199102</v>
+        <v>959.2770217024748</v>
       </c>
       <c r="X33" t="n">
-        <v>913.1507499935694</v>
+        <v>905.5554147318132</v>
       </c>
       <c r="Y33" t="n">
-        <v>705.3904512286156</v>
+        <v>697.7951159668594</v>
       </c>
     </row>
     <row r="34">
@@ -6862,19 +6862,19 @@
         <v>58.02851464234382</v>
       </c>
       <c r="L34" t="n">
-        <v>257.3302767960334</v>
+        <v>118.0059685189505</v>
       </c>
       <c r="M34" t="n">
-        <v>330.9572155438588</v>
+        <v>191.6329072667758</v>
       </c>
       <c r="N34" t="n">
-        <v>559.3307950339108</v>
+        <v>420.0064867568278</v>
       </c>
       <c r="O34" t="n">
-        <v>765.7863104950775</v>
+        <v>530.564476543201</v>
       </c>
       <c r="P34" t="n">
-        <v>789.6637441448053</v>
+        <v>705.504618552426</v>
       </c>
       <c r="Q34" t="n">
         <v>789.6637441448053</v>
@@ -6914,49 +6914,49 @@
         <v>1089.036043622727</v>
       </c>
       <c r="C35" t="n">
-        <v>925.244846706704</v>
+        <v>925.2448467067036</v>
       </c>
       <c r="D35" t="n">
-        <v>772.1504681243421</v>
+        <v>772.1504681243416</v>
       </c>
       <c r="E35" t="n">
-        <v>591.5335355504864</v>
+        <v>591.5335355504858</v>
       </c>
       <c r="F35" t="n">
-        <v>385.7189507852673</v>
+        <v>385.7189507852668</v>
       </c>
       <c r="G35" t="n">
-        <v>171.8922831384454</v>
+        <v>171.8922831384455</v>
       </c>
       <c r="H35" t="n">
         <v>39.27759168374283</v>
       </c>
       <c r="I35" t="n">
-        <v>50.87720864422855</v>
+        <v>50.87720864422849</v>
       </c>
       <c r="J35" t="n">
-        <v>80.61708314375258</v>
+        <v>80.61708314375252</v>
       </c>
       <c r="K35" t="n">
-        <v>245.9342499990565</v>
+        <v>447.0226607549596</v>
       </c>
       <c r="L35" t="n">
-        <v>642.9533178415219</v>
+        <v>704.3898521250451</v>
       </c>
       <c r="M35" t="n">
-        <v>945.9304530625259</v>
+        <v>1190.450049211363</v>
       </c>
       <c r="N35" t="n">
-        <v>1239.178077538435</v>
+        <v>1483.697673687272</v>
       </c>
       <c r="O35" t="n">
-        <v>1470.895855976772</v>
+        <v>1715.415452125608</v>
       </c>
       <c r="P35" t="n">
-        <v>1832.075646741987</v>
+        <v>1875.50683213492</v>
       </c>
       <c r="Q35" t="n">
-        <v>1875.075846197762</v>
+        <v>1918.507031590695</v>
       </c>
       <c r="R35" t="n">
         <v>1958.56012534771</v>
@@ -6971,13 +6971,13 @@
         <v>1897.215916415483</v>
       </c>
       <c r="V35" t="n">
-        <v>1771.324349096301</v>
+        <v>1771.3243490963</v>
       </c>
       <c r="W35" t="n">
         <v>1623.727013850575</v>
       </c>
       <c r="X35" t="n">
-        <v>1455.432575613884</v>
+        <v>1455.432575613883</v>
       </c>
       <c r="Y35" t="n">
         <v>1270.46456366246</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>998.7811915510773</v>
+        <v>860.3177436456606</v>
       </c>
       <c r="C36" t="n">
-        <v>824.3281622699503</v>
+        <v>685.8647143645336</v>
       </c>
       <c r="D36" t="n">
-        <v>675.3937526086991</v>
+        <v>536.9303047032823</v>
       </c>
       <c r="E36" t="n">
-        <v>516.1562976032436</v>
+        <v>377.6928496978268</v>
       </c>
       <c r="F36" t="n">
-        <v>369.6217396301286</v>
+        <v>231.1582917247118</v>
       </c>
       <c r="G36" t="n">
         <v>231.1582917247118</v>
@@ -7014,7 +7014,7 @@
         <v>39.27759168374283</v>
       </c>
       <c r="J36" t="n">
-        <v>63.29707751411953</v>
+        <v>63.29707751411945</v>
       </c>
       <c r="K36" t="n">
         <v>230.9710476804582</v>
@@ -7023,7 +7023,7 @@
         <v>517.8337891090473</v>
       </c>
       <c r="M36" t="n">
-        <v>904.5682995551224</v>
+        <v>904.5682995551225</v>
       </c>
       <c r="N36" t="n">
         <v>1317.245535115711</v>
@@ -7038,28 +7038,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R36" t="n">
-        <v>1963.879584187142</v>
+        <v>1956.569052209595</v>
       </c>
       <c r="S36" t="n">
-        <v>1795.428659651772</v>
+        <v>1956.569052209595</v>
       </c>
       <c r="T36" t="n">
-        <v>1795.428659651772</v>
+        <v>1956.569052209595</v>
       </c>
       <c r="U36" t="n">
-        <v>1772.393952038337</v>
+        <v>1728.363024571771</v>
       </c>
       <c r="V36" t="n">
-        <v>1537.241843806594</v>
+        <v>1493.210916340028</v>
       </c>
       <c r="W36" t="n">
-        <v>1414.392990521564</v>
+        <v>1238.973559611827</v>
       </c>
       <c r="X36" t="n">
-        <v>1206.541490316031</v>
+        <v>1031.122059406294</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.7811915510773</v>
+        <v>1028.533080665729</v>
       </c>
     </row>
     <row r="37">
@@ -7087,55 +7087,55 @@
         <v>39.27759168374283</v>
       </c>
       <c r="H37" t="n">
-        <v>43.16043779684557</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="I37" t="n">
-        <v>43.16043779684557</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="J37" t="n">
-        <v>43.16043779684557</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="K37" t="n">
-        <v>46.63873217847561</v>
+        <v>42.75588606537288</v>
       </c>
       <c r="L37" t="n">
-        <v>106.6161860550823</v>
+        <v>102.7333399419795</v>
       </c>
       <c r="M37" t="n">
-        <v>180.2431248029076</v>
+        <v>176.3602786898048</v>
       </c>
       <c r="N37" t="n">
-        <v>257.5539959334624</v>
+        <v>253.6711498203596</v>
       </c>
       <c r="O37" t="n">
-        <v>312.9468030351318</v>
+        <v>309.063956922029</v>
       </c>
       <c r="P37" t="n">
-        <v>336.8242366848596</v>
+        <v>332.9413905717569</v>
       </c>
       <c r="Q37" t="n">
-        <v>336.8242366848596</v>
+        <v>332.9413905717569</v>
       </c>
       <c r="R37" t="n">
-        <v>336.8242366848596</v>
+        <v>336.82423668486</v>
       </c>
       <c r="S37" t="n">
-        <v>319.6226678578917</v>
+        <v>319.622667857892</v>
       </c>
       <c r="T37" t="n">
-        <v>295.5036936835506</v>
+        <v>295.5036936835509</v>
       </c>
       <c r="U37" t="n">
-        <v>211.4760998705837</v>
+        <v>211.4760998705839</v>
       </c>
       <c r="V37" t="n">
-        <v>161.9629316890853</v>
+        <v>161.9629316890855</v>
       </c>
       <c r="W37" t="n">
-        <v>77.71708167651323</v>
+        <v>77.71708167651335</v>
       </c>
       <c r="X37" t="n">
-        <v>54.89885080288442</v>
+        <v>54.89885080288447</v>
       </c>
       <c r="Y37" t="n">
         <v>39.27759168374283</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1089.036043622728</v>
+        <v>1089.036043622727</v>
       </c>
       <c r="C38" t="n">
-        <v>925.2448467067047</v>
+        <v>925.2448467067036</v>
       </c>
       <c r="D38" t="n">
-        <v>772.1504681243426</v>
+        <v>772.1504681243416</v>
       </c>
       <c r="E38" t="n">
-        <v>591.5335355504868</v>
+        <v>591.5335355504858</v>
       </c>
       <c r="F38" t="n">
-        <v>385.7189507852677</v>
+        <v>385.7189507852668</v>
       </c>
       <c r="G38" t="n">
         <v>171.8922831384455</v>
@@ -7169,22 +7169,22 @@
         <v>39.27759168374283</v>
       </c>
       <c r="I38" t="n">
-        <v>50.8772086442284</v>
+        <v>50.87720864422849</v>
       </c>
       <c r="J38" t="n">
-        <v>281.7054938996555</v>
+        <v>80.61708314375252</v>
       </c>
       <c r="K38" t="n">
-        <v>586.6745372273401</v>
+        <v>447.0226607549596</v>
       </c>
       <c r="L38" t="n">
-        <v>844.0417285974255</v>
+        <v>704.3898521250451</v>
       </c>
       <c r="M38" t="n">
-        <v>1147.01886381843</v>
+        <v>1007.366987346049</v>
       </c>
       <c r="N38" t="n">
-        <v>1440.266488294339</v>
+        <v>1300.614611821959</v>
       </c>
       <c r="O38" t="n">
         <v>1671.984266732675</v>
@@ -7196,28 +7196,28 @@
         <v>1875.075846197762</v>
       </c>
       <c r="R38" t="n">
-        <v>1958.560125347711</v>
+        <v>1958.56012534771</v>
       </c>
       <c r="S38" t="n">
         <v>1963.879584187142</v>
       </c>
       <c r="T38" t="n">
-        <v>1945.889116118556</v>
+        <v>1945.889116118555</v>
       </c>
       <c r="U38" t="n">
-        <v>1897.215916415485</v>
+        <v>1897.215916415483</v>
       </c>
       <c r="V38" t="n">
-        <v>1771.324349096302</v>
+        <v>1771.3243490963</v>
       </c>
       <c r="W38" t="n">
-        <v>1623.727013850576</v>
+        <v>1623.727013850575</v>
       </c>
       <c r="X38" t="n">
-        <v>1455.432575613885</v>
+        <v>1455.432575613883</v>
       </c>
       <c r="Y38" t="n">
-        <v>1270.464563662462</v>
+        <v>1270.46456366246</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>867.6282756232074</v>
+        <v>860.3177436456606</v>
       </c>
       <c r="C39" t="n">
-        <v>693.1752463420804</v>
+        <v>685.8647143645336</v>
       </c>
       <c r="D39" t="n">
-        <v>544.2408366808291</v>
+        <v>536.9303047032823</v>
       </c>
       <c r="E39" t="n">
-        <v>385.0033816753736</v>
+        <v>377.6928496978268</v>
       </c>
       <c r="F39" t="n">
-        <v>238.4688237022586</v>
+        <v>231.1582917247118</v>
       </c>
       <c r="G39" t="n">
-        <v>100.0053757968418</v>
+        <v>231.1582917247118</v>
       </c>
       <c r="H39" t="n">
-        <v>39.27759168374283</v>
+        <v>120.3714599978739</v>
       </c>
       <c r="I39" t="n">
         <v>39.27759168374283</v>
@@ -7275,28 +7275,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R39" t="n">
-        <v>1963.879584187142</v>
+        <v>1879.310914649741</v>
       </c>
       <c r="S39" t="n">
-        <v>1963.879584187142</v>
+        <v>1879.310914649741</v>
       </c>
       <c r="T39" t="n">
-        <v>1963.879584187142</v>
+        <v>1879.310914649741</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.844876573706</v>
+        <v>1728.363024571771</v>
       </c>
       <c r="V39" t="n">
-        <v>1705.692768341964</v>
+        <v>1698.382236364417</v>
       </c>
       <c r="W39" t="n">
-        <v>1451.455411613762</v>
+        <v>1444.144879636215</v>
       </c>
       <c r="X39" t="n">
-        <v>1243.603911408229</v>
+        <v>1236.293379430683</v>
       </c>
       <c r="Y39" t="n">
-        <v>1035.843612643275</v>
+        <v>1028.533080665729</v>
       </c>
     </row>
     <row r="40">
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="C40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="D40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="E40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="F40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="G40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="H40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="I40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="J40" t="n">
-        <v>43.16043779684648</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="K40" t="n">
-        <v>46.63873217847652</v>
+        <v>42.75588606537288</v>
       </c>
       <c r="L40" t="n">
-        <v>106.6161860550832</v>
+        <v>102.7333399419795</v>
       </c>
       <c r="M40" t="n">
-        <v>180.2431248029085</v>
+        <v>176.3602786898048</v>
       </c>
       <c r="N40" t="n">
-        <v>257.5539959334633</v>
+        <v>253.6711498203596</v>
       </c>
       <c r="O40" t="n">
-        <v>312.9468030351327</v>
+        <v>309.063956922029</v>
       </c>
       <c r="P40" t="n">
-        <v>336.8242366848605</v>
+        <v>332.9413905717569</v>
       </c>
       <c r="Q40" t="n">
-        <v>336.8242366848605</v>
+        <v>332.9413905717569</v>
       </c>
       <c r="R40" t="n">
-        <v>336.8242366848605</v>
+        <v>336.82423668486</v>
       </c>
       <c r="S40" t="n">
-        <v>319.6226678578925</v>
+        <v>319.622667857892</v>
       </c>
       <c r="T40" t="n">
-        <v>295.5036936835513</v>
+        <v>295.5036936835509</v>
       </c>
       <c r="U40" t="n">
-        <v>211.4760998705843</v>
+        <v>211.4760998705839</v>
       </c>
       <c r="V40" t="n">
-        <v>161.9629316890858</v>
+        <v>161.9629316890855</v>
       </c>
       <c r="W40" t="n">
-        <v>77.71708167651352</v>
+        <v>77.71708167651335</v>
       </c>
       <c r="X40" t="n">
-        <v>54.89885080288456</v>
+        <v>54.89885080288447</v>
       </c>
       <c r="Y40" t="n">
         <v>39.27759168374283</v>
@@ -7388,10 +7388,10 @@
         <v>1089.036043622727</v>
       </c>
       <c r="C41" t="n">
-        <v>925.2448467067042</v>
+        <v>925.2448467067038</v>
       </c>
       <c r="D41" t="n">
-        <v>772.1504681243422</v>
+        <v>772.1504681243418</v>
       </c>
       <c r="E41" t="n">
         <v>591.5335355504865</v>
@@ -7406,34 +7406,34 @@
         <v>39.27759168374283</v>
       </c>
       <c r="I41" t="n">
-        <v>50.87720864422857</v>
+        <v>50.87720864422852</v>
       </c>
       <c r="J41" t="n">
-        <v>225.5884184555636</v>
+        <v>80.61708314375255</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9939960667707</v>
+        <v>245.9342499990565</v>
       </c>
       <c r="L41" t="n">
-        <v>849.3611874368561</v>
+        <v>660.9586667321115</v>
       </c>
       <c r="M41" t="n">
-        <v>1152.33832265786</v>
+        <v>1147.018863818429</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.58594713377</v>
+        <v>1440.266488294339</v>
       </c>
       <c r="O41" t="n">
-        <v>1677.303725572106</v>
+        <v>1671.984266732675</v>
       </c>
       <c r="P41" t="n">
-        <v>1837.395105581418</v>
+        <v>1832.075646741987</v>
       </c>
       <c r="Q41" t="n">
-        <v>1880.395305037193</v>
+        <v>1875.075846197762</v>
       </c>
       <c r="R41" t="n">
-        <v>1963.879584187142</v>
+        <v>1958.56012534771</v>
       </c>
       <c r="S41" t="n">
         <v>1963.879584187142</v>
@@ -7445,7 +7445,7 @@
         <v>1897.215916415483</v>
       </c>
       <c r="V41" t="n">
-        <v>1771.324349096301</v>
+        <v>1771.3243490963</v>
       </c>
       <c r="W41" t="n">
         <v>1623.727013850575</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>501.1284785315379</v>
+        <v>779.2238753315295</v>
       </c>
       <c r="C42" t="n">
-        <v>326.6754492504109</v>
+        <v>604.7708460504025</v>
       </c>
       <c r="D42" t="n">
-        <v>177.7410395891596</v>
+        <v>455.8364363891513</v>
       </c>
       <c r="E42" t="n">
-        <v>177.7410395891596</v>
+        <v>296.5989813836958</v>
       </c>
       <c r="F42" t="n">
-        <v>177.7410395891596</v>
+        <v>150.0644234105807</v>
       </c>
       <c r="G42" t="n">
-        <v>39.27759168374283</v>
+        <v>150.0644234105807</v>
       </c>
       <c r="H42" t="n">
         <v>39.27759168374283</v>
@@ -7518,22 +7518,22 @@
         <v>1710.859990114371</v>
       </c>
       <c r="T42" t="n">
-        <v>1509.751114479709</v>
+        <v>1710.859990114371</v>
       </c>
       <c r="U42" t="n">
-        <v>1281.545086841885</v>
+        <v>1647.26915625764</v>
       </c>
       <c r="V42" t="n">
-        <v>1046.392978610143</v>
+        <v>1412.117048025897</v>
       </c>
       <c r="W42" t="n">
-        <v>792.1556218819412</v>
+        <v>1157.879691297696</v>
       </c>
       <c r="X42" t="n">
-        <v>584.3041216764084</v>
+        <v>1155.199511116551</v>
       </c>
       <c r="Y42" t="n">
-        <v>501.1284785315379</v>
+        <v>947.4392123515975</v>
       </c>
     </row>
     <row r="43">
@@ -7549,67 +7549,67 @@
         <v>39.27759168374283</v>
       </c>
       <c r="D43" t="n">
-        <v>43.16043779684534</v>
+        <v>43.16043779684568</v>
       </c>
       <c r="E43" t="n">
-        <v>43.16043779684534</v>
+        <v>43.16043779684568</v>
       </c>
       <c r="F43" t="n">
-        <v>43.16043779684534</v>
+        <v>43.16043779684568</v>
       </c>
       <c r="G43" t="n">
-        <v>43.16043779684534</v>
+        <v>43.16043779684568</v>
       </c>
       <c r="H43" t="n">
-        <v>43.16043779684534</v>
+        <v>43.16043779684568</v>
       </c>
       <c r="I43" t="n">
-        <v>43.16043779684534</v>
+        <v>43.16043779684568</v>
       </c>
       <c r="J43" t="n">
-        <v>43.16043779684534</v>
+        <v>43.16043779684568</v>
       </c>
       <c r="K43" t="n">
-        <v>46.63873217847539</v>
+        <v>46.63873217847573</v>
       </c>
       <c r="L43" t="n">
-        <v>106.616186055082</v>
+        <v>106.6161860550824</v>
       </c>
       <c r="M43" t="n">
-        <v>180.2431248029073</v>
+        <v>180.2431248029077</v>
       </c>
       <c r="N43" t="n">
-        <v>257.5539959334621</v>
+        <v>257.5539959334625</v>
       </c>
       <c r="O43" t="n">
-        <v>312.9468030351316</v>
+        <v>312.9468030351319</v>
       </c>
       <c r="P43" t="n">
-        <v>336.8242366848594</v>
+        <v>336.8242366848597</v>
       </c>
       <c r="Q43" t="n">
-        <v>336.8242366848594</v>
+        <v>336.8242366848597</v>
       </c>
       <c r="R43" t="n">
-        <v>336.8242366848594</v>
+        <v>336.8242366848597</v>
       </c>
       <c r="S43" t="n">
-        <v>319.6226678578915</v>
+        <v>319.6226678578918</v>
       </c>
       <c r="T43" t="n">
-        <v>295.5036936835505</v>
+        <v>295.5036936835508</v>
       </c>
       <c r="U43" t="n">
-        <v>211.4760998705836</v>
+        <v>211.4760998705838</v>
       </c>
       <c r="V43" t="n">
-        <v>161.9629316890853</v>
+        <v>161.9629316890854</v>
       </c>
       <c r="W43" t="n">
-        <v>77.71708167651317</v>
+        <v>77.71708167651329</v>
       </c>
       <c r="X43" t="n">
-        <v>54.89885080288438</v>
+        <v>54.89885080288445</v>
       </c>
       <c r="Y43" t="n">
         <v>39.27759168374283</v>
@@ -7643,28 +7643,28 @@
         <v>39.27759168374283</v>
       </c>
       <c r="I44" t="n">
-        <v>39.27759168374283</v>
+        <v>50.87720864422852</v>
       </c>
       <c r="J44" t="n">
-        <v>69.01746618326688</v>
+        <v>80.61708314375255</v>
       </c>
       <c r="K44" t="n">
-        <v>234.3346330385708</v>
+        <v>385.5861264714364</v>
       </c>
       <c r="L44" t="n">
-        <v>491.7018244086563</v>
+        <v>642.9533178415219</v>
       </c>
       <c r="M44" t="n">
-        <v>794.6789596296603</v>
+        <v>945.9304530625259</v>
       </c>
       <c r="N44" t="n">
-        <v>1087.92658410557</v>
+        <v>1239.178077538435</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.732773299809</v>
+        <v>1470.895855976772</v>
       </c>
       <c r="P44" t="n">
-        <v>1680.824153309121</v>
+        <v>1832.075646741987</v>
       </c>
       <c r="Q44" t="n">
         <v>1875.075846197762</v>
@@ -7676,7 +7676,7 @@
         <v>1963.879584187142</v>
       </c>
       <c r="T44" t="n">
-        <v>1945.889116118555</v>
+        <v>1945.889116118554</v>
       </c>
       <c r="U44" t="n">
         <v>1897.215916415483</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>699.1773510878377</v>
+        <v>213.7306209648698</v>
       </c>
       <c r="C45" t="n">
-        <v>524.7243218067107</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="D45" t="n">
-        <v>375.7899121454594</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="E45" t="n">
-        <v>216.5524571400039</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="F45" t="n">
-        <v>70.0178991668889</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="G45" t="n">
-        <v>70.0178991668889</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="H45" t="n">
         <v>39.27759168374283</v>
@@ -7749,28 +7749,28 @@
         <v>1963.879584187142</v>
       </c>
       <c r="R45" t="n">
-        <v>1963.879584187142</v>
+        <v>1884.713049723224</v>
       </c>
       <c r="S45" t="n">
-        <v>1795.428659651772</v>
+        <v>1716.262125187855</v>
       </c>
       <c r="T45" t="n">
-        <v>1795.428659651772</v>
+        <v>1515.153249553192</v>
       </c>
       <c r="U45" t="n">
-        <v>1772.393952038337</v>
+        <v>1286.947221915369</v>
       </c>
       <c r="V45" t="n">
-        <v>1537.241843806594</v>
+        <v>1051.795113683626</v>
       </c>
       <c r="W45" t="n">
-        <v>1283.004487078392</v>
+        <v>797.5577569554246</v>
       </c>
       <c r="X45" t="n">
-        <v>1075.15298687286</v>
+        <v>589.7062567498917</v>
       </c>
       <c r="Y45" t="n">
-        <v>867.3926881079058</v>
+        <v>381.9459579849379</v>
       </c>
     </row>
     <row r="46">
@@ -7801,31 +7801,31 @@
         <v>39.27759168374283</v>
       </c>
       <c r="I46" t="n">
-        <v>43.16043779684568</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="J46" t="n">
-        <v>43.16043779684568</v>
+        <v>39.27759168374283</v>
       </c>
       <c r="K46" t="n">
-        <v>46.63873217847573</v>
+        <v>42.75588606537288</v>
       </c>
       <c r="L46" t="n">
-        <v>106.6161860550824</v>
+        <v>102.7333399419795</v>
       </c>
       <c r="M46" t="n">
-        <v>180.2431248029077</v>
+        <v>176.3602786898048</v>
       </c>
       <c r="N46" t="n">
-        <v>257.5539959334625</v>
+        <v>253.6711498203596</v>
       </c>
       <c r="O46" t="n">
-        <v>312.9468030351319</v>
+        <v>309.063956922029</v>
       </c>
       <c r="P46" t="n">
-        <v>336.8242366848597</v>
+        <v>332.9413905717569</v>
       </c>
       <c r="Q46" t="n">
-        <v>336.8242366848597</v>
+        <v>332.9413905717569</v>
       </c>
       <c r="R46" t="n">
         <v>336.8242366848597</v>
@@ -7982,19 +7982,19 @@
         <v>226.965896786692</v>
       </c>
       <c r="L2" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>237.8312214670128</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8064,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6424607116987</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
         <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
-        <v>237.8312214670128</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>148.7322596337616</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>146.5799997977648</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,16 +8456,16 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>153.8571172950092</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>148.6588525046114</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.8289284410384</v>
       </c>
       <c r="K12" t="n">
         <v>95.09759037991327</v>
       </c>
       <c r="L12" t="n">
-        <v>145.228460232297</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>453.4973967414921</v>
+        <v>453.4973967414922</v>
       </c>
       <c r="N12" t="n">
-        <v>440.9299344921026</v>
+        <v>343.4648697825281</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>106.1925742736319</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8289284410384</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>95.09759037991327</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>273.3752805938847</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>453.4973967414921</v>
+        <v>436.9511176716568</v>
       </c>
       <c r="N15" t="n">
-        <v>440.9299344921026</v>
+        <v>62.49668185811026</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.1925742736319</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.8289284410384</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>95.09759037991327</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>273.3752805938847</v>
       </c>
       <c r="M18" t="n">
-        <v>453.4973967414922</v>
+        <v>453.4973967414921</v>
       </c>
       <c r="N18" t="n">
-        <v>440.9299344921027</v>
+        <v>440.9299344921026</v>
       </c>
       <c r="O18" t="n">
-        <v>337.8026661856788</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>83.4276034893777</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>106.1925742736319</v>
@@ -9483,19 +9483,19 @@
         <v>95.09759037991327</v>
       </c>
       <c r="L21" t="n">
-        <v>273.3752805938847</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>453.4973967414921</v>
+        <v>453.4973967414922</v>
       </c>
       <c r="N21" t="n">
-        <v>440.9299344921026</v>
+        <v>440.9299344921027</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>220.9977039303627</v>
       </c>
       <c r="Q21" t="n">
         <v>106.1925742736319</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.8289284410384</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>95.09759037991327</v>
       </c>
       <c r="L24" t="n">
-        <v>210.8959787501912</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>453.4973967414921</v>
+        <v>453.4973967414922</v>
       </c>
       <c r="N24" t="n">
-        <v>440.9299344921026</v>
+        <v>343.4648697825281</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>83.4276034893777</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>106.1925742736319</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358492</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>252.1229555799665</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>234.6620056874934</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187.2661449564491</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.2651596581973</v>
+        <v>276.2651596581974</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.1971217109846</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>120.6951884466715</v>
+        <v>36.2920377531581</v>
       </c>
       <c r="V11" t="n">
         <v>197.1413723866208</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>218.6300826338989</v>
       </c>
       <c r="X11" t="n">
         <v>239.1202145949549</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.6270525725395</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>252.1229555799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>234.6620056874933</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0721555371688</v>
+        <v>224.0721555371689</v>
       </c>
       <c r="E14" t="n">
-        <v>251.3194839887476</v>
+        <v>251.3194839887477</v>
       </c>
       <c r="F14" t="n">
-        <v>276.2651596581973</v>
+        <v>276.2651596581974</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>60.79193593205912</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.13552999373053</v>
       </c>
       <c r="T14" t="n">
-        <v>71.68990847215808</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>197.1413723866207</v>
+        <v>197.1413723866208</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>191.427189218874</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>239.1202145949549</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908870.5909140606</v>
+        <v>908870.5909140604</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908870.5909140607</v>
+        <v>908870.5909140606</v>
       </c>
     </row>
     <row r="7">
@@ -26317,22 +26317,22 @@
         <v>471713.3279894934</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>403111.1305711878</v>
+        <v>403111.1305711879</v>
       </c>
       <c r="F2" t="n">
-        <v>403111.1305711881</v>
+        <v>403111.1305711879</v>
       </c>
       <c r="G2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="H2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="I2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="J2" t="n">
         <v>472099.017671963</v>
@@ -26344,13 +26344,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719636</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719628</v>
@@ -26372,13 +26372,13 @@
         <v>2617.583265578577</v>
       </c>
       <c r="E3" t="n">
-        <v>311781.4930698845</v>
+        <v>311781.4930698844</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85935.08608373543</v>
+        <v>85935.08608373551</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>117789.9687777055</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87679.20904023155</v>
+        <v>87679.20904023165</v>
       </c>
       <c r="M3" t="n">
-        <v>83343.38525828408</v>
+        <v>83343.38525828402</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34391.66640178653</v>
+        <v>34391.66640178642</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>398047.1347630749</v>
       </c>
       <c r="D4" t="n">
-        <v>396930.0138358381</v>
+        <v>396930.013835838</v>
       </c>
       <c r="E4" t="n">
         <v>250694.1959290543</v>
       </c>
       <c r="F4" t="n">
-        <v>250694.1959290544</v>
+        <v>250694.1959290543</v>
       </c>
       <c r="G4" t="n">
         <v>318932.5405380971</v>
@@ -26439,13 +26439,13 @@
         <v>318932.5405380971</v>
       </c>
       <c r="J4" t="n">
-        <v>314524.8585314192</v>
+        <v>314524.8585314193</v>
       </c>
       <c r="K4" t="n">
         <v>314524.8585314192</v>
       </c>
       <c r="L4" t="n">
-        <v>314482.4701053266</v>
+        <v>314482.4701053267</v>
       </c>
       <c r="M4" t="n">
         <v>313572.3781551483</v>
@@ -26454,10 +26454,10 @@
         <v>313572.3781551482</v>
       </c>
       <c r="O4" t="n">
-        <v>313572.3781551484</v>
+        <v>313572.3781551483</v>
       </c>
       <c r="P4" t="n">
-        <v>313572.3781551484</v>
+        <v>313572.3781551483</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>36671.86393488243</v>
       </c>
       <c r="F5" t="n">
-        <v>36671.86393488244</v>
+        <v>36671.86393488242</v>
       </c>
       <c r="G5" t="n">
         <v>45702.45987484938</v>
@@ -26500,13 +26500,13 @@
         <v>56968.93352514198</v>
       </c>
       <c r="M5" t="n">
-        <v>49609.82749832431</v>
+        <v>49609.8274983243</v>
       </c>
       <c r="N5" t="n">
         <v>49609.8274983243</v>
       </c>
       <c r="O5" t="n">
-        <v>49609.82749832431</v>
+        <v>49609.8274983243</v>
       </c>
       <c r="P5" t="n">
         <v>49609.8274983243</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37316.20856822287</v>
+        <v>37314.53165656002</v>
       </c>
       <c r="C6" t="n">
-        <v>39620.52964532241</v>
+        <v>39618.85273365949</v>
       </c>
       <c r="D6" t="n">
-        <v>37993.41412962609</v>
+        <v>37993.4141296262</v>
       </c>
       <c r="E6" t="n">
-        <v>-196036.4223626334</v>
+        <v>-196336.369697854</v>
       </c>
       <c r="F6" t="n">
-        <v>115745.0707072512</v>
+        <v>115445.1233720304</v>
       </c>
       <c r="G6" t="n">
-        <v>21528.93117528092</v>
+        <v>21528.93117528081</v>
       </c>
       <c r="H6" t="n">
         <v>107464.0172590164</v>
       </c>
       <c r="I6" t="n">
-        <v>107464.0172590165</v>
+        <v>107464.0172590164</v>
       </c>
       <c r="J6" t="n">
-        <v>-17513.80268109078</v>
+        <v>-17513.80268109083</v>
       </c>
       <c r="K6" t="n">
-        <v>100276.1660966144</v>
+        <v>100276.1660966145</v>
       </c>
       <c r="L6" t="n">
-        <v>12968.40500126278</v>
+        <v>12968.40500126254</v>
       </c>
       <c r="M6" t="n">
-        <v>25573.42676020608</v>
+        <v>25573.42676020609</v>
       </c>
       <c r="N6" t="n">
-        <v>108916.8120184905</v>
+        <v>108916.8120184901</v>
       </c>
       <c r="O6" t="n">
-        <v>74525.14561670439</v>
+        <v>74525.1456167037</v>
       </c>
       <c r="P6" t="n">
-        <v>108916.8120184901</v>
+        <v>108916.8120184902</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>130.6108860835141</v>
       </c>
       <c r="F2" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="G2" t="n">
         <v>238.0297436881835</v>
@@ -26719,10 +26719,10 @@
         <v>203.1196068241446</v>
       </c>
       <c r="N2" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="O2" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="P2" t="n">
         <v>203.1196068241446</v>
@@ -26917,10 +26917,10 @@
         <v>130.6108860835141</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>107.4188576046693</v>
+        <v>107.4188576046694</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>42.98958300223299</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5990113002894</v>
+        <v>109.5990113002896</v>
       </c>
       <c r="M2" t="n">
-        <v>50.5310125216221</v>
+        <v>50.53101252162205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.98958300223316</v>
+        <v>42.98958300223302</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>130.6108860835141</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.4188576046693</v>
+        <v>107.4188576046694</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>42.98958300223299</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.6774205741812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>142.9930721994382</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>166.3733413407963</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T3" t="n">
         <v>193.2886829531102</v>
       </c>
       <c r="U3" t="n">
-        <v>219.0653363392634</v>
+        <v>220.6315523179333</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27555,13 +27555,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>18.93451147168993</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>170.417345635458</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>224.6106090740886</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>204.4194684811065</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27661,7 +27661,7 @@
         <v>3.114653472833368</v>
       </c>
       <c r="R5" t="n">
-        <v>143.8126968518503</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>106.9256144734549</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>94.84800438960156</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
         <v>193.2886829531102</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>142.5590519289129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>139.5579169048577</v>
+        <v>140.3775415572698</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>155.3511267657281</v>
       </c>
       <c r="I7" t="n">
         <v>148.5744291855468</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>358.4314916216989</v>
       </c>
       <c r="D8" t="n">
-        <v>351.1950896318968</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.6276325571267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>391.5733082265764</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>187.4326688177485</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>192.9506359002313</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>154.5123281551278</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,25 +28059,25 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>214.9524449208127</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.2819158369597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7920521272268</v>
+        <v>118.7920521272269</v>
       </c>
       <c r="S11" t="n">
         <v>130.6108860835141</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="C12" t="n">
         <v>130.6108860835141</v>
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>31.31930589227676</v>
       </c>
       <c r="H12" t="n">
         <v>109.6789634095695</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.72298284202647</v>
       </c>
       <c r="S12" t="n">
         <v>130.6108860835141</v>
@@ -28223,7 +28223,7 @@
         <v>130.6108860835141</v>
       </c>
       <c r="U12" t="n">
-        <v>115.0422887343031</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>130.6108860835141</v>
       </c>
       <c r="X12" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>130.6108860835141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28278,13 +28278,13 @@
         <v>130.6108860835141</v>
       </c>
       <c r="M13" t="n">
-        <v>130.6108860835141</v>
+        <v>14.12894932353824</v>
       </c>
       <c r="N13" t="n">
         <v>130.6108860835141</v>
       </c>
       <c r="O13" t="n">
-        <v>14.12894932353764</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="P13" t="n">
         <v>130.6108860835141</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="C14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="D14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="E14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="F14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="G14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="H14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="I14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28369,31 +28369,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.771116669464391e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7920521272268</v>
+        <v>118.7920521272269</v>
       </c>
       <c r="S14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="T14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="U14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="V14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="W14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="X14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="Y14" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130.6108860835142</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>130.6108860835142</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28415,10 +28415,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>130.6108860835142</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>31.31930589227564</v>
+        <v>31.31930589227693</v>
       </c>
       <c r="H15" t="n">
         <v>109.6789634095695</v>
@@ -28454,25 +28454,25 @@
         <v>83.72298284202647</v>
       </c>
       <c r="S15" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="T15" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="U15" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="Y15" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="C16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="D16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="E16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="F16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="G16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="H16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="I16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="J16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="K16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="L16" t="n">
-        <v>130.6108860835142</v>
+        <v>14.12894932353822</v>
       </c>
       <c r="M16" t="n">
-        <v>14.12894932353582</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="N16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="O16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="P16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="R16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="T16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="U16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="V16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="W16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="X16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.6108860835142</v>
+        <v>130.6108860835141</v>
       </c>
     </row>
     <row r="17">
@@ -28646,13 +28646,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>139.9382000333961</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0788134263626</v>
@@ -28661,7 +28661,7 @@
         <v>109.6789634095695</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.28292963098976</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,19 +28688,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.72298284202647</v>
       </c>
       <c r="S18" t="n">
         <v>166.766415290016</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U18" t="n">
-        <v>219.8278437421443</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28737,13 +28737,13 @@
         <v>167.7690606374602</v>
       </c>
       <c r="H19" t="n">
-        <v>58.07481427126193</v>
+        <v>160.2541133334706</v>
       </c>
       <c r="I19" t="n">
         <v>148.7767737539562</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>77.66952654207478</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.57937653244245</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>167.3151187039071</v>
+        <v>55.04566963206614</v>
       </c>
       <c r="S19" t="n">
         <v>220.1491599628428</v>
@@ -28883,19 +28883,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>139.9382000333961</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I21" t="n">
         <v>80.28292963098976</v>
@@ -28934,13 +28934,13 @@
         <v>199.0977868783158</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9239673614453</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>225.4565586684841</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.0297436881835</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>55.49961156561929</v>
+        <v>167.7690606374602</v>
       </c>
       <c r="H22" t="n">
         <v>160.2541133334706</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.57937653244245</v>
       </c>
       <c r="R22" t="n">
-        <v>167.3151187039071</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>220.1491599628428</v>
+        <v>207.6154530624665</v>
       </c>
       <c r="T22" t="n">
         <v>226.9973912567422</v>
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0788134263626</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>67.65092121333672</v>
+        <v>83.72298284202647</v>
       </c>
       <c r="S24" t="n">
         <v>166.766415290016</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0977868783158</v>
+        <v>191.590921347073</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9239673614453</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29241,16 +29241,16 @@
         <v>67.57937653244245</v>
       </c>
       <c r="R25" t="n">
-        <v>167.3151187039071</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.30033435855944</v>
+        <v>220.1491599628428</v>
       </c>
       <c r="T25" t="n">
         <v>226.9973912567422</v>
       </c>
       <c r="U25" t="n">
-        <v>238.0297436881835</v>
+        <v>225.4960367878072</v>
       </c>
       <c r="V25" t="n">
         <v>238.0297436881835</v>
@@ -29360,10 +29360,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>150.4084406069024</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.0788134263626</v>
@@ -29402,13 +29402,13 @@
         <v>83.72298284202647</v>
       </c>
       <c r="S27" t="n">
-        <v>76.30683629385958</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>70.96760808034128</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.4084406069024</v>
       </c>
       <c r="D28" t="n">
+        <v>148.6154730182124</v>
+      </c>
+      <c r="E28" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="E28" t="n">
-        <v>146.4339626465692</v>
-      </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="G28" t="n">
         <v>150.4084406069024</v>
@@ -29454,25 +29454,25 @@
         <v>148.7767737539562</v>
       </c>
       <c r="J28" t="n">
-        <v>77.66952654207478</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>7.255118989000856</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>87.16293600944354</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="P28" t="n">
-        <v>150.4084406069024</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>150.4084406069024</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.28292963098976</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.72298284202647</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.4084406069024</v>
+        <v>38.80857882436463</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.90850370246883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>150.4084406069024</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.4084406069024</v>
       </c>
       <c r="G31" t="n">
         <v>150.4084406069024</v>
@@ -29691,28 +29691,28 @@
         <v>148.7767737539562</v>
       </c>
       <c r="J31" t="n">
-        <v>99.04605360776591</v>
+        <v>77.66952654207478</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>78.20106546513918</v>
+      </c>
+      <c r="O31" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
         <v>150.4084406069024</v>
       </c>
-      <c r="N31" t="n">
+      <c r="Q31" t="n">
         <v>150.4084406069024</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>67.57937653244245</v>
       </c>
       <c r="R31" t="n">
         <v>150.4084406069024</v>
@@ -29776,7 +29776,7 @@
         <v>152.5885943025225</v>
       </c>
       <c r="L32" t="n">
-        <v>99.60091634313255</v>
+        <v>152.5885943025225</v>
       </c>
       <c r="M32" t="n">
         <v>152.5885943025225</v>
@@ -29788,13 +29788,13 @@
         <v>152.5885943025225</v>
       </c>
       <c r="P32" t="n">
-        <v>152.5885943025225</v>
+        <v>133.3974585184281</v>
       </c>
       <c r="Q32" t="n">
         <v>152.5885943025225</v>
       </c>
       <c r="R32" t="n">
-        <v>152.5885943025225</v>
+        <v>118.7920521272268</v>
       </c>
       <c r="S32" t="n">
         <v>152.5885943025225</v>
@@ -29834,10 +29834,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>152.5885943025225</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0788134263626</v>
@@ -29873,25 +29873,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.72298284202647</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>150.3302835311273</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>152.5885943025225</v>
-      </c>
-      <c r="T33" t="n">
-        <v>74.12668259823926</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>140.731624522306</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,13 +29943,13 @@
         <v>152.5885943025225</v>
       </c>
       <c r="O34" t="n">
+        <v>55.72240675222596</v>
+      </c>
+      <c r="P34" t="n">
         <v>152.5885943025225</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
-        <v>67.57937653244245</v>
+        <v>152.5885943025225</v>
       </c>
       <c r="R34" t="n">
         <v>152.5885943025225</v>
@@ -30010,13 +30010,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="L35" t="n">
-        <v>141.0625014872524</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>184.9323857225389</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>203.1196068241446</v>
+        <v>159.2497225888583</v>
       </c>
       <c r="S35" t="n">
         <v>203.1196068241446</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.72298284202647</v>
+        <v>76.48555618425512</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.766415290016</v>
       </c>
       <c r="T36" t="n">
         <v>199.0977868783158</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>203.1196068241446</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>130.07461840874</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>167.7690606374602</v>
       </c>
       <c r="H37" t="n">
-        <v>164.1761801143824</v>
+        <v>160.2541133334706</v>
       </c>
       <c r="I37" t="n">
         <v>148.7767737539562</v>
@@ -30189,7 +30189,7 @@
         <v>67.57937653244245</v>
       </c>
       <c r="R37" t="n">
-        <v>167.3151187039071</v>
+        <v>171.2371854848193</v>
       </c>
       <c r="S37" t="n">
         <v>203.1196068241446</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="C38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="D38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="E38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="F38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="G38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="H38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="I38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="J38" t="n">
-        <v>203.1196068241445</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>141.0625014872533</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>141.0625014872526</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="S38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="T38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="U38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="V38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="W38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="X38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="Y38" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
     </row>
     <row r="39">
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H39" t="n">
-        <v>49.55845713760151</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.28292963098976</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.72298284202647</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>166.766415290016</v>
@@ -30356,10 +30356,10 @@
         <v>199.0977868783158</v>
       </c>
       <c r="U39" t="n">
-        <v>203.1196068241445</v>
+        <v>76.48555618425505</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.7540469628501</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30426,28 +30426,28 @@
         <v>67.57937653244245</v>
       </c>
       <c r="R40" t="n">
-        <v>167.3151187039071</v>
+        <v>171.2371854848193</v>
       </c>
       <c r="S40" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="T40" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="U40" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="V40" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="X40" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.1196068241445</v>
+        <v>203.1196068241446</v>
       </c>
     </row>
     <row r="41">
@@ -30457,40 +30457,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="C41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="D41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="E41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="F41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="G41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="H41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="I41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="J41" t="n">
-        <v>146.4356922341525</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>203.1196068241447</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>159.2497225888582</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>184.9323857225389</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="S41" t="n">
-        <v>197.7464160772446</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="T41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="U41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="V41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="W41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="X41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="Y41" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30545,16 +30545,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0788134263626</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6789634095695</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.28292963098976</v>
@@ -30590,10 +30590,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0977868783158</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>162.9690418432812</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="Y42" t="n">
-        <v>123.3388090638826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>152.537539799124</v>
+        <v>152.5375397991243</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30666,25 +30666,25 @@
         <v>167.3151187039071</v>
       </c>
       <c r="S43" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="T43" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="U43" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="V43" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="X43" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.1196068241447</v>
+        <v>203.1196068241446</v>
       </c>
     </row>
     <row r="44">
@@ -30715,13 +30715,13 @@
         <v>203.1196068241446</v>
       </c>
       <c r="I44" t="n">
-        <v>191.4028220155732</v>
+        <v>203.1196068241446</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>141.0625014872525</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,13 +30733,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>203.1196068241446</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>152.7792862958239</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>203.1196068241446</v>
@@ -30779,19 +30779,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0788134263626</v>
       </c>
       <c r="H45" t="n">
-        <v>79.24605900125492</v>
+        <v>109.6789634095695</v>
       </c>
       <c r="I45" t="n">
         <v>80.28292963098976</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.72298284202647</v>
+        <v>5.348113722748579</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0977868783158</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>203.1196068241446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>160.2541133334706</v>
       </c>
       <c r="I46" t="n">
-        <v>152.6988405348682</v>
+        <v>148.7767737539562</v>
       </c>
       <c r="J46" t="n">
         <v>77.66952654207478</v>
@@ -30900,7 +30900,7 @@
         <v>67.57937653244245</v>
       </c>
       <c r="R46" t="n">
-        <v>167.3151187039071</v>
+        <v>171.2371854848191</v>
       </c>
       <c r="S46" t="n">
         <v>203.1196068241446</v>
@@ -31753,7 +31753,7 @@
         <v>0.494729720636345</v>
       </c>
       <c r="H11" t="n">
-        <v>5.06665075146697</v>
+        <v>5.066650751466969</v>
       </c>
       <c r="I11" t="n">
         <v>19.07306755483271</v>
@@ -31762,28 +31762,28 @@
         <v>41.98956662685902</v>
       </c>
       <c r="K11" t="n">
-        <v>62.93147570139552</v>
+        <v>62.93147570139551</v>
       </c>
       <c r="L11" t="n">
-        <v>78.07206038932009</v>
+        <v>78.07206038932007</v>
       </c>
       <c r="M11" t="n">
-        <v>86.87021005868668</v>
+        <v>86.87021005868667</v>
       </c>
       <c r="N11" t="n">
-        <v>88.2758608774447</v>
+        <v>88.27586087744469</v>
       </c>
       <c r="O11" t="n">
-        <v>83.35639221786704</v>
+        <v>83.35639221786703</v>
       </c>
       <c r="P11" t="n">
         <v>71.14275223965726</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.42524411936814</v>
+        <v>53.42524411936813</v>
       </c>
       <c r="R11" t="n">
-        <v>31.07706581392284</v>
+        <v>31.07706581392283</v>
       </c>
       <c r="S11" t="n">
         <v>11.27365350900072</v>
@@ -31792,7 +31792,7 @@
         <v>2.165679352085601</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0395783776509076</v>
+        <v>0.03957837765090759</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>0.264703736848022</v>
       </c>
       <c r="H12" t="n">
-        <v>2.55648082692695</v>
+        <v>2.556480826926949</v>
       </c>
       <c r="I12" t="n">
-        <v>9.11370322042532</v>
+        <v>9.113703220425318</v>
       </c>
       <c r="J12" t="n">
         <v>25.00869822562825</v>
       </c>
       <c r="K12" t="n">
-        <v>42.74384859444573</v>
+        <v>42.74384859444572</v>
       </c>
       <c r="L12" t="n">
-        <v>57.47437935377776</v>
+        <v>57.47437935377775</v>
       </c>
       <c r="M12" t="n">
-        <v>67.06988981451855</v>
+        <v>67.06988981451853</v>
       </c>
       <c r="N12" t="n">
-        <v>68.84503022522306</v>
+        <v>68.84503022522304</v>
       </c>
       <c r="O12" t="n">
-        <v>62.97975268769582</v>
+        <v>62.97975268769581</v>
       </c>
       <c r="P12" t="n">
         <v>50.54680392495255</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.78919981238962</v>
+        <v>33.78919981238961</v>
       </c>
       <c r="R12" t="n">
         <v>16.43485131061667</v>
       </c>
       <c r="S12" t="n">
-        <v>4.916755813821808</v>
+        <v>4.916755813821807</v>
       </c>
       <c r="T12" t="n">
-        <v>1.066941816505843</v>
+        <v>1.066941816505842</v>
       </c>
       <c r="U12" t="n">
         <v>0.01741471952947514</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2219187209985574</v>
+        <v>0.2219187209985573</v>
       </c>
       <c r="H13" t="n">
         <v>1.973059173968993</v>
       </c>
       <c r="I13" t="n">
-        <v>6.673701173302073</v>
+        <v>6.673701173302072</v>
       </c>
       <c r="J13" t="n">
         <v>15.689653574598</v>
@@ -31926,28 +31926,28 @@
         <v>32.99326148373098</v>
       </c>
       <c r="M13" t="n">
-        <v>34.78676823798295</v>
+        <v>34.78676823798294</v>
       </c>
       <c r="N13" t="n">
-        <v>33.95961664153381</v>
+        <v>33.9596166415338</v>
       </c>
       <c r="O13" t="n">
         <v>31.36720249168701</v>
       </c>
       <c r="P13" t="n">
-        <v>26.84006058331642</v>
+        <v>26.84006058331641</v>
       </c>
       <c r="Q13" t="n">
         <v>18.58266671925193</v>
       </c>
       <c r="R13" t="n">
-        <v>9.978272673262405</v>
+        <v>9.978272673262403</v>
       </c>
       <c r="S13" t="n">
         <v>3.867438074129403</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9481981715392903</v>
+        <v>0.9481981715392902</v>
       </c>
       <c r="U13" t="n">
         <v>0.01210465750901223</v>
@@ -31990,7 +31990,7 @@
         <v>0.494729720636345</v>
       </c>
       <c r="H14" t="n">
-        <v>5.06665075146697</v>
+        <v>5.066650751466969</v>
       </c>
       <c r="I14" t="n">
         <v>19.07306755483271</v>
@@ -31999,28 +31999,28 @@
         <v>41.98956662685902</v>
       </c>
       <c r="K14" t="n">
-        <v>62.93147570139552</v>
+        <v>62.93147570139551</v>
       </c>
       <c r="L14" t="n">
-        <v>78.07206038932009</v>
+        <v>78.07206038932007</v>
       </c>
       <c r="M14" t="n">
-        <v>86.87021005868668</v>
+        <v>86.87021005868667</v>
       </c>
       <c r="N14" t="n">
-        <v>88.2758608774447</v>
+        <v>88.27586087744469</v>
       </c>
       <c r="O14" t="n">
-        <v>83.35639221786704</v>
+        <v>83.35639221786703</v>
       </c>
       <c r="P14" t="n">
         <v>71.14275223965726</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.42524411936814</v>
+        <v>53.42524411936813</v>
       </c>
       <c r="R14" t="n">
-        <v>31.07706581392284</v>
+        <v>31.07706581392283</v>
       </c>
       <c r="S14" t="n">
         <v>11.27365350900072</v>
@@ -32029,7 +32029,7 @@
         <v>2.165679352085601</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0395783776509076</v>
+        <v>0.03957837765090759</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>0.264703736848022</v>
       </c>
       <c r="H15" t="n">
-        <v>2.55648082692695</v>
+        <v>2.556480826926949</v>
       </c>
       <c r="I15" t="n">
-        <v>9.11370322042532</v>
+        <v>9.113703220425318</v>
       </c>
       <c r="J15" t="n">
         <v>25.00869822562825</v>
       </c>
       <c r="K15" t="n">
-        <v>42.74384859444573</v>
+        <v>42.74384859444572</v>
       </c>
       <c r="L15" t="n">
-        <v>57.47437935377776</v>
+        <v>57.47437935377775</v>
       </c>
       <c r="M15" t="n">
-        <v>67.06988981451855</v>
+        <v>67.06988981451853</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84503022522306</v>
+        <v>68.84503022522304</v>
       </c>
       <c r="O15" t="n">
-        <v>62.97975268769582</v>
+        <v>62.97975268769581</v>
       </c>
       <c r="P15" t="n">
         <v>50.54680392495255</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.78919981238962</v>
+        <v>33.78919981238961</v>
       </c>
       <c r="R15" t="n">
         <v>16.43485131061667</v>
       </c>
       <c r="S15" t="n">
-        <v>4.916755813821808</v>
+        <v>4.916755813821807</v>
       </c>
       <c r="T15" t="n">
-        <v>1.066941816505843</v>
+        <v>1.066941816505842</v>
       </c>
       <c r="U15" t="n">
         <v>0.01741471952947514</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2219187209985574</v>
+        <v>0.2219187209985573</v>
       </c>
       <c r="H16" t="n">
         <v>1.973059173968993</v>
       </c>
       <c r="I16" t="n">
-        <v>6.673701173302073</v>
+        <v>6.673701173302072</v>
       </c>
       <c r="J16" t="n">
         <v>15.689653574598</v>
@@ -32163,28 +32163,28 @@
         <v>32.99326148373098</v>
       </c>
       <c r="M16" t="n">
-        <v>34.78676823798295</v>
+        <v>34.78676823798294</v>
       </c>
       <c r="N16" t="n">
-        <v>33.95961664153381</v>
+        <v>33.9596166415338</v>
       </c>
       <c r="O16" t="n">
         <v>31.36720249168701</v>
       </c>
       <c r="P16" t="n">
-        <v>26.84006058331642</v>
+        <v>26.84006058331641</v>
       </c>
       <c r="Q16" t="n">
         <v>18.58266671925193</v>
       </c>
       <c r="R16" t="n">
-        <v>9.978272673262405</v>
+        <v>9.978272673262403</v>
       </c>
       <c r="S16" t="n">
         <v>3.867438074129403</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9481981715392903</v>
+        <v>0.9481981715392902</v>
       </c>
       <c r="U16" t="n">
         <v>0.01210465750901223</v>
@@ -34702,19 +34702,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>296.2097216928379</v>
       </c>
       <c r="O11" t="n">
-        <v>234.0583620589257</v>
+        <v>234.0583620589256</v>
       </c>
       <c r="P11" t="n">
         <v>161.7084646558704</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.2621068993704</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>64.14845980620052</v>
+        <v>289.7603448773627</v>
       </c>
       <c r="M12" t="n">
         <v>378.4332526339924</v>
       </c>
       <c r="N12" t="n">
-        <v>378.4332526339924</v>
+        <v>280.9681879244179</v>
       </c>
       <c r="O12" t="n">
         <v>314.2458275199809</v>
@@ -35507,7 +35507,7 @@
         <v>235.0351651505595</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.8847134622172</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.94135954143935</v>
+        <v>52.94135954143932</v>
       </c>
       <c r="K13" t="n">
         <v>134.1243147518273</v>
@@ -35574,19 +35574,19 @@
         <v>191.1941728275612</v>
       </c>
       <c r="M13" t="n">
-        <v>204.9815312833377</v>
+        <v>88.49959452336176</v>
       </c>
       <c r="N13" t="n">
         <v>208.7026751042765</v>
       </c>
       <c r="O13" t="n">
-        <v>70.08127972926432</v>
+        <v>186.5632164892408</v>
       </c>
       <c r="P13" t="n">
         <v>154.729505931724</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.03150955107166</v>
+        <v>63.03150955107163</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,13 +35659,13 @@
         <v>296.2097216928379</v>
       </c>
       <c r="O14" t="n">
-        <v>234.0583620589257</v>
+        <v>234.0583620589256</v>
       </c>
       <c r="P14" t="n">
         <v>161.7084646558704</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.43454490482361</v>
+        <v>43.43454490482333</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.26210689937039</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>169.3676466326653</v>
       </c>
       <c r="L15" t="n">
-        <v>192.2952801677883</v>
+        <v>289.7603448773627</v>
       </c>
       <c r="M15" t="n">
-        <v>378.4332526339924</v>
+        <v>361.886973564157</v>
       </c>
       <c r="N15" t="n">
-        <v>378.4332526339924</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>314.2458275199809</v>
@@ -35744,7 +35744,7 @@
         <v>235.0351651505595</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.8847134622172</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.94135954143943</v>
+        <v>52.94135954143932</v>
       </c>
       <c r="K16" t="n">
-        <v>134.1243147518274</v>
+        <v>134.1243147518273</v>
       </c>
       <c r="L16" t="n">
-        <v>191.1941728275613</v>
+        <v>74.71223606758534</v>
       </c>
       <c r="M16" t="n">
-        <v>88.49959452335936</v>
+        <v>204.9815312833376</v>
       </c>
       <c r="N16" t="n">
-        <v>208.7026751042766</v>
+        <v>208.7026751042765</v>
       </c>
       <c r="O16" t="n">
-        <v>186.5632164892409</v>
+        <v>186.5632164892408</v>
       </c>
       <c r="P16" t="n">
-        <v>154.7295059317241</v>
+        <v>154.729505931724</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.03150955107175</v>
+        <v>63.03150955107163</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.2621068993704</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>169.3676466326653</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>289.7603448773627</v>
+        <v>192.2952801677883</v>
       </c>
       <c r="M18" t="n">
         <v>378.4332526339924</v>
@@ -35975,10 +35975,10 @@
         <v>378.4332526339924</v>
       </c>
       <c r="O18" t="n">
-        <v>258.1861744289303</v>
+        <v>314.2458275199809</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.0351651505595</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>192.2952801677883</v>
+        <v>289.7603448773627</v>
       </c>
       <c r="M21" t="n">
         <v>378.4332526339924</v>
@@ -36215,7 +36215,7 @@
         <v>314.2458275199809</v>
       </c>
       <c r="P21" t="n">
-        <v>235.0351651505595</v>
+        <v>137.570100440985</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.2621068993704</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.3676466326653</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>129.8159783240947</v>
+        <v>289.7603448773627</v>
       </c>
       <c r="M24" t="n">
         <v>378.4332526339924</v>
       </c>
       <c r="N24" t="n">
-        <v>378.4332526339924</v>
+        <v>280.9681879244179</v>
       </c>
       <c r="O24" t="n">
         <v>314.2458275199809</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>235.0351651505595</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.8847134622172</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>317.3954778344821</v>
       </c>
       <c r="L26" t="n">
-        <v>410.3753005766856</v>
+        <v>410.3753005766857</v>
       </c>
       <c r="M26" t="n">
         <v>456.4459509311488</v>
@@ -36610,13 +36610,13 @@
         <v>384.466802665828</v>
       </c>
       <c r="P26" t="n">
-        <v>312.1169052627727</v>
+        <v>312.1169052627728</v>
       </c>
       <c r="Q26" t="n">
         <v>193.8429855117257</v>
       </c>
       <c r="R26" t="n">
-        <v>31.61638847967551</v>
+        <v>31.61638847967555</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.792967588690004</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.974477960333218</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.987392583971143</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.73891406482761</v>
       </c>
       <c r="K28" t="n">
         <v>3.513428668313171</v>
       </c>
       <c r="L28" t="n">
-        <v>60.58328674404712</v>
+        <v>67.83840573304798</v>
       </c>
       <c r="M28" t="n">
-        <v>224.7790858067259</v>
+        <v>74.37064519982354</v>
       </c>
       <c r="N28" t="n">
-        <v>78.09178902076241</v>
+        <v>228.5002296276648</v>
       </c>
       <c r="O28" t="n">
-        <v>143.1152664151702</v>
+        <v>206.3607710126291</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5270604551123</v>
+        <v>24.11861984820991</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.82906407445991</v>
+        <v>82.82906407445994</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.792967588690004</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.974477960333189</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.987392583971115</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>21.37652706569114</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>3.513428668313171</v>
       </c>
       <c r="L31" t="n">
-        <v>210.9917273509495</v>
+        <v>60.58328674404712</v>
       </c>
       <c r="M31" t="n">
-        <v>224.7790858067259</v>
+        <v>74.37064519982354</v>
       </c>
       <c r="N31" t="n">
-        <v>228.5002296276648</v>
+        <v>156.2928544859016</v>
       </c>
       <c r="O31" t="n">
-        <v>55.95233040572668</v>
+        <v>206.360771012629</v>
       </c>
       <c r="P31" t="n">
-        <v>24.11861984820991</v>
+        <v>174.5270604551123</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.82906407445991</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>319.5756315301023</v>
       </c>
       <c r="L32" t="n">
-        <v>359.5677763129158</v>
+        <v>412.5554542723058</v>
       </c>
       <c r="M32" t="n">
         <v>458.6261046267689</v>
@@ -37084,13 +37084,13 @@
         <v>386.6469563614482</v>
       </c>
       <c r="P32" t="n">
-        <v>314.2970589583929</v>
+        <v>295.1059231742985</v>
       </c>
       <c r="Q32" t="n">
         <v>196.0231392073458</v>
       </c>
       <c r="R32" t="n">
-        <v>33.79654217529568</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>3.513428668313171</v>
       </c>
       <c r="L34" t="n">
-        <v>201.3149112663532</v>
+        <v>60.58328674404712</v>
       </c>
       <c r="M34" t="n">
         <v>74.37064519982354</v>
@@ -37239,13 +37239,13 @@
         <v>230.6803833232849</v>
       </c>
       <c r="O34" t="n">
-        <v>208.5409247082492</v>
+        <v>111.6747371579526</v>
       </c>
       <c r="P34" t="n">
-        <v>24.11861984820991</v>
+        <v>176.7072141507324</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>85.00921777008007</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.71678480857143</v>
+        <v>11.71678480857137</v>
       </c>
       <c r="J35" t="n">
         <v>30.04027727224651</v>
       </c>
       <c r="K35" t="n">
-        <v>166.9870372275797</v>
+        <v>370.1066440517243</v>
       </c>
       <c r="L35" t="n">
-        <v>401.0293614570357</v>
+        <v>259.9668599697833</v>
       </c>
       <c r="M35" t="n">
-        <v>306.0375103242465</v>
+        <v>490.9698960467854</v>
       </c>
       <c r="N35" t="n">
         <v>296.2097216928379</v>
@@ -37321,16 +37321,16 @@
         <v>234.0583620589257</v>
       </c>
       <c r="P35" t="n">
-        <v>364.828071480015</v>
+        <v>161.7084646558704</v>
       </c>
       <c r="Q35" t="n">
         <v>43.43454490482333</v>
       </c>
       <c r="R35" t="n">
-        <v>84.32755469691779</v>
+        <v>40.45767046163149</v>
       </c>
       <c r="S35" t="n">
-        <v>5.373190746900008</v>
+        <v>5.373190746899951</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>235.0351651505595</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.8847134622173</v>
+        <v>103.8847134622172</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.922066780911855</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.922066780912207</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.71678480857128</v>
+        <v>11.71678480857137</v>
       </c>
       <c r="J38" t="n">
-        <v>233.159884096391</v>
+        <v>30.04027727224651</v>
       </c>
       <c r="K38" t="n">
-        <v>308.049538714833</v>
+        <v>370.1066440517243</v>
       </c>
       <c r="L38" t="n">
         <v>259.9668599697833</v>
@@ -37555,7 +37555,7 @@
         <v>296.2097216928379</v>
       </c>
       <c r="O38" t="n">
-        <v>234.0583620589257</v>
+        <v>375.1208635461783</v>
       </c>
       <c r="P38" t="n">
         <v>161.7084646558704</v>
@@ -37564,10 +37564,10 @@
         <v>43.43454490482333</v>
       </c>
       <c r="R38" t="n">
-        <v>84.32755469691764</v>
+        <v>84.32755469691773</v>
       </c>
       <c r="S38" t="n">
-        <v>5.373190746899866</v>
+        <v>5.373190746899951</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.922066780912774</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.922066780912207</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,19 +37774,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.71678480857145</v>
+        <v>11.7167848085714</v>
       </c>
       <c r="J41" t="n">
-        <v>176.475969506399</v>
+        <v>30.04027727224651</v>
       </c>
       <c r="K41" t="n">
-        <v>370.1066440517243</v>
+        <v>166.9870372275797</v>
       </c>
       <c r="L41" t="n">
-        <v>259.9668599697833</v>
+        <v>419.2165825586414</v>
       </c>
       <c r="M41" t="n">
-        <v>306.0375103242465</v>
+        <v>490.9698960467854</v>
       </c>
       <c r="N41" t="n">
         <v>296.2097216928379</v>
@@ -37801,10 +37801,10 @@
         <v>43.43454490482333</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32755469691782</v>
+        <v>84.32755469691776</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.373190746899979</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3.922066780911626</v>
+        <v>3.92206678091197</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.7167848085714</v>
       </c>
       <c r="J44" t="n">
         <v>30.04027727224651</v>
       </c>
       <c r="K44" t="n">
-        <v>166.9870372275797</v>
+        <v>308.0495387148322</v>
       </c>
       <c r="L44" t="n">
         <v>259.9668599697833</v>
@@ -38029,13 +38029,13 @@
         <v>296.2097216928379</v>
       </c>
       <c r="O44" t="n">
-        <v>437.1779688830703</v>
+        <v>234.0583620589257</v>
       </c>
       <c r="P44" t="n">
-        <v>161.7084646558704</v>
+        <v>364.828071480015</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.2138312006472</v>
+        <v>43.43454490482333</v>
       </c>
       <c r="R44" t="n">
         <v>84.32755469691776</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.92206678091197</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.922066780911977</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
